--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3AD4D-04FE-4166-AD20-3DF1D89F79F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D250E5A2-00D7-4DCA-A31E-69CF2B3EF311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="4" r:id="rId4"/>
+    <sheet name="ch2" sheetId="12" r:id="rId4"/>
     <sheet name="ch3" sheetId="9" r:id="rId5"/>
-    <sheet name="ch4" sheetId="12" r:id="rId6"/>
-    <sheet name="ch5" sheetId="5" r:id="rId7"/>
-    <sheet name="ch6" sheetId="6" r:id="rId8"/>
-    <sheet name="ch7" sheetId="7" r:id="rId9"/>
+    <sheet name="ch4" sheetId="5" r:id="rId6"/>
+    <sheet name="ch5" sheetId="6" r:id="rId7"/>
+    <sheet name="ch6" sheetId="7" r:id="rId8"/>
+    <sheet name="ch7" sheetId="4" r:id="rId9"/>
     <sheet name="ch8" sheetId="8" r:id="rId10"/>
     <sheet name="ch9" sheetId="16" r:id="rId11"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="330">
   <si>
     <t>header1</t>
   </si>
@@ -364,10 +364,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -503,60 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
-この章の作業はあなたが広島大学の中にいるときに行ってください。
-自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をしてから次の章へ進み、この章の学内ネットワークへの接続設定は後日行ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにする方法を説明します。一度設定すると、次回からは（同じエリアでは）設定不要です。
 右の図では、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
  </t>
@@ -592,22 +534,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="office_install"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Microsoft Officeのインストールを行います。
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office_activation"&gt;Officeのライセンス認証&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="19" eb="21">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ニンショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1125,59 +1051,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広島大学必携PC初期講習会（自習形式）</t>
     <rPh sb="14" eb="16">
       <t>ジシュウ</t>
@@ -2213,16 +2086,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Google Chromeのインストールを行います。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Mac chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Mac chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2440,10 +2304,6 @@
     <rPh sb="136" eb="138">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4191,6 +4051,134 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2021 macOS appendix A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
+この章の作業はあなたが広島大学の中にいるときに行ってください。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生番号と、一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、Microsoft Officeのインストールを行います。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office_activation"&gt;Officeのライセンス認証&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="137" eb="139">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4599,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4623,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4671,10 +4659,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4698,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4722,7 +4710,7 @@
     </row>
     <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4741,7 +4729,7 @@
     </row>
     <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4772,7 +4760,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4780,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4796,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4804,7 +4792,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4818,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4828,13 +4816,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4842,24 +4830,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4867,13 +4855,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4881,40 +4869,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4922,13 +4910,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4936,24 +4924,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4961,13 +4949,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4975,35 +4963,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5011,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5025,18 +5013,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5055,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5091,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5119,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5127,13 +5115,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5141,24 +5129,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5166,13 +5154,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5180,13 +5168,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5200,18 +5188,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5219,13 +5207,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -5239,7 +5227,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5253,7 +5241,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5261,134 +5249,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5396,13 +5384,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5457,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5465,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5479,13 +5467,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5493,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5507,13 +5495,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5521,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5535,24 +5523,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5560,24 +5548,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5588,11 +5576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5608,7 +5596,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5616,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5632,101 +5620,167 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5795,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD33"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5757,7 +5811,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5765,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5781,15 +5835,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5800,18 +5854,18 @@
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5819,13 +5873,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5836,11 +5890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5856,7 +5910,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5864,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5880,58 +5934,64 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5939,103 +5999,538 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>4</v>
+        <v>240</v>
+      </c>
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
+      <c r="B20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6045,12 +6540,542 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D36"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6066,7 +7091,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6074,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6090,1133 +7115,101 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D250E5A2-00D7-4DCA-A31E-69CF2B3EF311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB100B69-0973-4F44-9E81-0738CB7EC1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1051,16 +1051,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学必携PC初期講習会（自習形式）</t>
-    <rPh sb="14" eb="16">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4145,7 +4135,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。</t>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
     <rPh sb="0" eb="2">
       <t>イコウ</t>
     </rPh>
@@ -4178,6 +4168,49 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自宅ネットワークでの自習形式）</t>
+    <rPh sb="14" eb="16">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4570,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4587,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4611,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4760,7 +4793,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4768,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4784,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4792,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4806,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4816,13 +4849,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4830,24 +4863,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4855,13 +4888,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4869,40 +4902,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4910,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4924,24 +4957,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
         <v>302</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4949,13 +4982,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4963,35 +4996,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4999,13 +5032,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5013,18 +5046,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5107,7 +5140,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5115,13 +5148,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5129,24 +5162,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5154,13 +5187,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5168,13 +5201,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5188,18 +5221,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5207,13 +5240,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -5227,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5241,7 +5274,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5249,134 +5282,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5384,13 +5417,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5445,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5453,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5467,13 +5500,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5481,13 +5514,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5495,13 +5528,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5509,13 +5542,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5523,24 +5556,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
         <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5548,24 +5581,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5579,8 +5612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5596,7 +5629,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5604,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5620,22 +5653,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
         <v>133</v>
@@ -5646,13 +5679,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5660,15 +5693,15 @@
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5684,18 +5717,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>267</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5811,7 +5844,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5819,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5835,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5843,7 +5876,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5857,7 +5890,7 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5934,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -5942,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5966,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5980,10 +6013,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5991,7 +6024,7 @@
         <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5999,53 +6032,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
         <v>240</v>
-      </c>
-      <c r="D13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
         <v>242</v>
-      </c>
-      <c r="D14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="s">
         <v>244</v>
-      </c>
-      <c r="D15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
         <v>248</v>
-      </c>
-      <c r="D17" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6053,13 +6086,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6073,7 +6106,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6081,13 +6114,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6101,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6109,13 +6142,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6129,7 +6162,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -6332,7 +6365,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6340,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6356,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -6364,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6411,13 +6444,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6425,24 +6458,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -6450,18 +6483,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -6499,10 +6532,10 @@
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -6524,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6687,13 +6720,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6701,7 +6734,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6715,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6907,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6929,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7115,17 +7148,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB100B69-0973-4F44-9E81-0738CB7EC1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFFF0B-8D3B-4BE0-B759-3422B87AC69A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="326">
   <si>
     <t>header1</t>
   </si>
@@ -2147,82 +2147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ザンテイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="106" eb="109">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="271" eb="273">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSSD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
@@ -2293,154 +2217,6 @@
     </rPh>
     <rPh sb="136" eb="138">
       <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もしかするとすぐに「このMac用のアップデートがあります」と表示されて「今すぐ再起動」というボタンが出るかもしれませんが、これを押さず、「詳細」をクリックします。「詳しい情報」ではないのでご注意ください。</t>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動的に行う操作を「アップデートを確認」「新しいアップデートがある場合はダウンロード」「App Storeからのアプリケーションアップデートをインストール」「システムデータファイルとセキュリティアップデートをインストール」をチェックしますが、macOSのバージョンが11以降の方は、「macOSアップデートをインストール」はチェックを外します。&lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="0" eb="3">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateNowChecking.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateFoundUpdate.png</t>
-  </si>
-  <si>
-    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。もしかすると全くチェックが入っていないかもしれませんし、全てチェックされているかもしれません。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDetail.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDisableOSUpdate.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ソフトウェアの自動更新は基本的には推奨される機能ですが、macOS 11以降ではウィルス対策ソフトの関係で調整が必要です。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2764,19 +2540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。
-以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="370" eb="372">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="383" eb="384">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ダウンロードされたpkgファイルをクリックすると、インストーラが立ち上がります。 沢山ダウンロードしたファイルがあって不安な場合は、右クリックしてダウンロードフォルダを開いて日付を確認しましょう。 </t>
     <rPh sb="41" eb="43">
       <t>タクサン</t>
@@ -2817,51 +2580,6 @@
   </si>
   <si>
     <t>download-eset-links.png</t>
-  </si>
-  <si>
-    <t>この後の手順はmacOSのバージョンに加え、CPUのタイプ(Intelか、M1か)によって異なるため、ダウンロードしたサイトにあるインストールマニュアルに従ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」から適切なほうを選びダウンロードします。ここでダウンロードするパッケージは、IntelとM1で共通ですが、Big　Sur未満か、Big Sur以降かで異なりますので、注意してください。
-&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="42" eb="44">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Office365へ広島大学のアカウントでサインインするため、まず広島大学側のポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;に行きます。このような画面になりますので、portal.office.comへのリンクをクリックします。</t>
@@ -4131,10 +3849,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Mac chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
     <rPh sb="0" eb="2">
       <t>イコウ</t>
@@ -4212,6 +3926,376 @@
     <rPh sb="26" eb="27">
       <t>カタチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、macOS 11以降のバージョンには正式対応しておりません。対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますが、正式対応までお待ちいただくか、macOS 11以降に正式対応している市販のウィルス対策ソフトを別途手配いただき、それによってウィルス対策をしてください。もし広島大学が提供するウィルス対策ソフトの提供を待ち、ウィルス対策ソフトなしの状態で使用する場合、点検報告書には「macOS11以降のため、ウィルス対策ソフトの提供待ち」にチェックを入れてください。後日、自己点検報告書の内容に基づき、ご連絡を差し上げる場合があります。&lt;strong&gt;以下、macOS 10.15までの方を対象にしています。&lt;/strong&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>シハン</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="346" eb="349">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="359" eb="361">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="369" eb="371">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="375" eb="377">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="386" eb="387">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="394" eb="396">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="397" eb="399">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="401" eb="404">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="408" eb="409">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="413" eb="415">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="421" eb="423">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="437" eb="439">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="456" eb="458">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macOS 10以前の方は、以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。お使いのmacOSが10.xであることを確認した上で、「Big Sur未対応版」macOS 10.15までの正式対応版を使ってください。マニュアルも「Big Sur未対応版」を使ってください。
+&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="53" eb="54">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この後の手順はインストールマニュアルに従ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。このMacは最新の状態です、と出ていることが望ましい状態です。</t>
+    <rPh sb="44" eb="46">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。全てにチェックが入っていれば、可能なmacOSの最新バージョンへの更新が自動で行われます。ただし、macOS 10.xからmacOS 11.xのような一番大きい数字が変わるような更新の際は、アプリケーションが動かなくなる可能性もあるので、確認を求められます。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="144" eb="147">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full-detail.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4603,27 +4687,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4631,7 +4715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4639,7 +4723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4653,7 +4737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4682,15 +4766,15 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -4698,7 +4782,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4714,7 +4798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4722,7 +4806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4736,17 +4820,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>96</v>
       </c>
@@ -4780,31 +4864,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4812,20 +4896,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4834,230 +4918,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
         <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5075,15 +5159,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="84.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5091,7 +5175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5099,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5107,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5129,7 +5213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5143,7 +5227,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5241,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5171,7 +5255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
@@ -5182,7 +5266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5196,7 +5280,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5210,7 +5294,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>171</v>
       </c>
@@ -5235,7 +5319,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5333,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5263,7 +5347,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5361,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5375,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>179</v>
       </c>
@@ -5302,7 +5386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>182</v>
       </c>
@@ -5313,7 +5397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>183</v>
       </c>
@@ -5324,7 +5408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>187</v>
       </c>
@@ -5335,7 +5419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>186</v>
       </c>
@@ -5346,7 +5430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>189</v>
       </c>
@@ -5357,7 +5441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>190</v>
       </c>
@@ -5368,7 +5452,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>192</v>
       </c>
@@ -5379,7 +5463,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>194</v>
       </c>
@@ -5390,7 +5474,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>196</v>
       </c>
@@ -5401,7 +5485,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -5412,7 +5496,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5441,15 +5525,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5457,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5465,7 +5549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5481,12 +5565,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5495,12 +5579,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5509,12 +5593,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -5523,12 +5607,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5537,7 +5621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5635,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5565,7 +5649,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>208</v>
       </c>
@@ -5576,7 +5660,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5590,7 +5674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>213</v>
       </c>
@@ -5612,35 +5696,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5648,7 +5732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5656,55 +5740,55 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>125</v>
       </c>
@@ -5712,106 +5796,106 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5831,15 +5915,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5847,7 +5931,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5855,7 +5939,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5863,20 +5947,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5885,7 +5969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>140</v>
       </c>
@@ -5893,7 +5977,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
@@ -5901,7 +5985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5930,15 +6014,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5946,7 +6030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +6038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5962,7 +6046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5970,12 +6054,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5984,17 +6068,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6008,94 +6092,94 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>239</v>
       </c>
-      <c r="D13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6106,24 +6190,24 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6134,24 +6218,24 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6162,15 +6246,15 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6184,7 +6268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6198,7 +6282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6212,7 +6296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6240,7 +6324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6254,7 +6338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6268,7 +6352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6282,7 +6366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6296,7 +6380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6310,7 +6394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6348,35 +6432,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6384,20 +6468,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6406,12 +6490,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6425,7 +6509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6439,131 +6523,113 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>282</v>
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6581,15 +6647,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6597,7 +6663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6621,7 +6687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6635,12 +6701,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6654,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6668,7 +6734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6682,12 +6748,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6701,7 +6767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6715,29 +6781,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6748,10 +6814,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6765,7 +6831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6793,7 +6859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6807,7 +6873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6821,12 +6887,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +6906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6854,7 +6920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6868,7 +6934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6882,12 +6948,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6915,7 +6981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6940,10 +7006,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6957,7 +7023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6971,7 +7037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6982,7 +7048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6996,7 +7062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7010,7 +7076,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -7021,12 +7087,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -7040,7 +7106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -7054,7 +7120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -7068,7 +7134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -7082,7 +7148,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -7111,15 +7177,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -7127,7 +7193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7135,7 +7201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7143,25 +7209,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7175,7 +7241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7189,7 +7255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +7269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFFF0B-8D3B-4BE0-B759-3422B87AC69A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF7C44-164B-481B-8072-12DD74BE9315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4125,7 +4125,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。お使いのmacOSが10.xであることを確認した上で、「Big Sur未対応版」macOS 10.15までの正式対応版を使ってください。マニュアルも「Big Sur未対応版」を使ってください。
+    <t>この後の手順はインストールマニュアルに従ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。このMacは最新の状態です、と出ていることが望ましい状態です。</t>
+    <rPh sb="44" eb="46">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。全てにチェックが入っていれば、可能なmacOSの最新バージョンへの更新が自動で行われます。ただし、macOS 10.xからmacOS 11.xのような一番大きい数字が変わるような更新の際は、アプリケーションが動かなくなる可能性もあるので、確認を求められます。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="144" eb="147">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full-detail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。お使いのmacOSが10.xであることを確認した上で、「Big Sur未対応版」がmacOS 10.15までの正式対応版となります。マニュアルも「Big Sur未対応版」を使ってください。
 &lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
     <rPh sb="53" eb="54">
       <t>ツカ</t>
@@ -4142,160 +4275,24 @@
     <rPh sb="90" eb="91">
       <t>バン</t>
     </rPh>
-    <rPh sb="106" eb="108">
+    <rPh sb="107" eb="109">
       <t>セイシキ</t>
     </rPh>
-    <rPh sb="108" eb="110">
+    <rPh sb="109" eb="111">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="110" eb="111">
+    <rPh sb="111" eb="112">
       <t>バン</t>
     </rPh>
-    <rPh sb="112" eb="113">
+    <rPh sb="132" eb="135">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="138" eb="139">
       <t>ツカ</t>
     </rPh>
-    <rPh sb="134" eb="137">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この後の手順はインストールマニュアルに従ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Mac chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。このMacは最新の状態です、と出ていることが望ましい状態です。</t>
-    <rPh sb="44" eb="46">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macos-auto-update-full.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。全てにチェックが入っていれば、可能なmacOSの最新バージョンへの更新が自動で行われます。ただし、macOS 10.xからmacOS 11.xのような一番大きい数字が変わるような更新の際は、アプリケーションが動かなくなる可能性もあるので、確認を求められます。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="144" eb="147">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macos-auto-update-full-detail.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5696,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D14"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5782,7 +5779,7 @@
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
         <v>260</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6432,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6449,7 +6446,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6473,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6528,24 +6525,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF7C44-164B-481B-8072-12DD74BE9315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB339530-6B63-480F-913C-5A05526419FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -363,14 +363,6 @@
     <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Mac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
 学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
 &lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
@@ -626,10 +618,6 @@
     <rPh sb="65" eb="67">
       <t>デンゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3827,10 +3815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Mac chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。
 </t>
     <phoneticPr fontId="1"/>
@@ -4293,6 +4277,22 @@
     <rPh sb="138" eb="139">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4684,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4760,7 +4760,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4773,10 +4773,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4800,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4824,7 +4824,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4874,7 +4874,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4906,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4920,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4930,13 +4930,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4944,24 +4944,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,13 +4969,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,40 +4983,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5024,13 +5024,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5038,24 +5038,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5063,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5077,35 +5077,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5113,13 +5113,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5127,18 +5127,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5169,7 +5169,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5221,7 +5221,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5229,13 +5229,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5243,24 +5243,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5268,13 +5268,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5282,13 +5282,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5302,18 +5302,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5321,13 +5321,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5355,7 +5355,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5363,134 +5363,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,13 +5498,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5581,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5595,13 +5595,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5609,13 +5609,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5623,13 +5623,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5637,24 +5637,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5662,24 +5662,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5710,7 +5710,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5734,25 +5734,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5760,37 +5760,37 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5798,18 +5798,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,7 +5909,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5925,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5957,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5968,18 +5968,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5987,13 +5987,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6048,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6067,12 +6067,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6080,13 +6080,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6094,18 +6094,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6113,53 +6113,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6167,13 +6167,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6187,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6195,13 +6195,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6209,13 +6209,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6223,13 +6223,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6237,18 +6237,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6270,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -6284,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -6298,7 +6298,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6312,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -6326,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -6340,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -6354,7 +6354,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6368,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6382,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6396,13 +6396,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6410,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -6430,7 +6430,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6446,7 +6446,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6497,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6511,7 +6511,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6525,34 +6525,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -6574,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6596,7 +6596,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6610,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6681,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6783,21 +6783,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6805,13 +6805,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6922,7 +6922,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -7003,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7025,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7039,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7050,13 +7050,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7064,13 +7064,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7078,10 +7078,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7108,13 +7108,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7211,17 +7211,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7229,7 +7229,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -7243,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -7299,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB339530-6B63-480F-913C-5A05526419FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B01431-4669-4411-BAC9-75D6C440403D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3913,184 +3913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、macOS 11以降のバージョンには正式対応しておりません。対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますが、正式対応までお待ちいただくか、macOS 11以降に正式対応している市販のウィルス対策ソフトを別途手配いただき、それによってウィルス対策をしてください。もし広島大学が提供するウィルス対策ソフトの提供を待ち、ウィルス対策ソフトなしの状態で使用する場合、点検報告書には「macOS11以降のため、ウィルス対策ソフトの提供待ち」にチェックを入れてください。後日、自己点検報告書の内容に基づき、ご連絡を差し上げる場合があります。&lt;strong&gt;以下、macOS 10.15までの方を対象にしています。&lt;/strong&gt;</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>シハン</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="302" eb="304">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="316" eb="318">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="326" eb="328">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="341" eb="343">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="346" eb="349">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="359" eb="361">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="369" eb="371">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="386" eb="387">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="394" eb="396">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="397" eb="399">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="399" eb="401">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="401" eb="404">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="405" eb="407">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="408" eb="409">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="413" eb="415">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="416" eb="417">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="418" eb="419">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="421" eb="423">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="437" eb="439">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="456" eb="458">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>macOS 10以前の方は、以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
 開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
 &lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
@@ -4293,6 +4115,172 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2021 Mac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、macOS 11以降のバージョンには正式対応しておりません。対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますが、正式対応までお待ちいただくか、macOS 11以降に正式対応している市販のウィルス対策ソフトを別途手配いただき、それによってウィルス対策をしてください。もし広島大学が提供するウィルス対策ソフトの提供を待ち、ウィルス対策ソフトなしの状態で使用する場合、点検報告書には「大学提供の ESET 正式版が出るまで十分に注意して使い、正式版が提供されたら直ちにインストールする」にチェックを入れてください。後日、自己点検報告書の内容に基づき、ご連絡を差し上げる場合があります。&lt;strong&gt;以下、macOS 10.15までの方を対象にしています。&lt;/strong&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>シハン</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="346" eb="349">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="409" eb="410">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="417" eb="419">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="424" eb="427">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="436" eb="438">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="439" eb="440">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="441" eb="442">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="444" eb="446">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="460" eb="462">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="479" eb="481">
+      <t>タイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4684,7 +4672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4800,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5693,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5744,12 +5732,12 @@
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
@@ -5779,7 +5767,7 @@
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
         <v>257</v>
@@ -5809,7 +5797,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6446,7 +6434,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6470,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6525,24 +6513,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6681,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B01431-4669-4411-BAC9-75D6C440403D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C1B6E-44BD-492A-804F-CADD3536CA3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="324">
   <si>
     <t>header1</t>
   </si>
@@ -232,13 +232,6 @@
   </si>
   <si>
     <t>win10-6-27.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-06.svg</t>
   </si>
   <si>
     <t>win10-6-07.svg</t>
@@ -4689,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4713,7 +4706,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4761,10 +4754,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4772,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4796,7 +4789,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4807,12 +4800,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4820,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4831,7 +4824,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4855,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4870,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4886,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4894,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4908,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4918,13 +4911,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4932,24 +4925,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4957,13 +4950,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4971,40 +4964,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5012,13 +5005,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5026,24 +5019,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5051,13 +5044,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5065,35 +5058,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5101,13 +5094,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5115,18 +5108,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5157,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5181,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5209,7 +5202,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5217,13 +5210,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5231,24 +5224,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5256,13 +5249,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5270,13 +5263,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5290,18 +5283,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5309,13 +5302,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5329,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5343,7 +5336,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5351,134 +5344,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5486,13 +5479,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5555,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5569,13 +5562,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5583,13 +5576,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5597,13 +5590,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5611,13 +5604,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5625,24 +5618,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5650,24 +5643,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5681,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5698,7 +5691,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,25 +5715,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5748,37 +5741,37 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5786,18 +5779,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5913,7 +5906,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5937,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5945,7 +5938,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5956,18 +5949,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5975,13 +5968,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6012,7 +6005,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6020,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6036,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6044,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6055,12 +6048,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6068,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6082,18 +6075,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
         <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6101,53 +6094,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6155,13 +6148,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6175,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6183,13 +6176,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6197,13 +6190,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6211,13 +6204,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6225,18 +6218,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6244,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6258,7 +6251,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -6272,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -6286,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6300,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -6314,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -6328,7 +6321,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -6342,7 +6335,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6356,7 +6349,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6370,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6384,13 +6377,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6398,7 +6391,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -6434,7 +6427,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6442,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6458,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6466,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6485,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6499,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6513,34 +6506,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6548,7 +6541,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -6562,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6573,10 +6566,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6584,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6598,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6626,10 +6619,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6669,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6677,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6771,21 +6764,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6793,13 +6786,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6816,26 +6809,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6844,7 +6837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6858,59 +6851,59 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6919,40 +6912,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6966,7 +6959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6977,135 +6970,135 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -7119,7 +7112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -7131,20 +7124,6 @@
       </c>
       <c r="D42" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7158,7 +7137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7199,17 +7178,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7217,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -7231,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -7287,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C1B6E-44BD-492A-804F-CADD3536CA3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9832A10-EFA0-4A17-ABAA-82EC53D56702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1872,10 +1872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>26_AboutThisMacResult.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>26_AboutThisMacStorage.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2494,12 +2490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Big Sur」というのがこのOSの名前ですね。その下に小さな文字で「バージョン11.1」とあります。このMacのOSのバージョンは11.1です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
 &lt;p class="spl"&gt;※HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。&lt;/p&gt;
  「ストレージ」タブをクリックしてください。HDD/SSDの空き容量と全容量がというように表示されます。   </t>
@@ -4275,6 +4265,15 @@
       <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+「macOS Sierra」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.12.3」とあります。このMacのOSのバージョンは10.12.3です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+ 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは4GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-1-2.png</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4781,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,7 +4854,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4887,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4901,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4911,13 +4910,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4925,24 +4924,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,13 +4949,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,40 +4963,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5005,13 +5004,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5019,24 +5018,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5044,13 +5043,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5058,35 +5057,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5094,13 +5093,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5108,18 +5107,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5405,7 +5404,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5499,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5548,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5562,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5576,13 +5575,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5590,13 +5589,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5604,13 +5603,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5618,24 +5617,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5643,24 +5642,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +5690,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5699,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5715,22 +5714,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -5741,13 +5740,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5755,15 +5754,15 @@
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5779,18 +5778,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5906,7 +5905,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5914,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5930,7 +5929,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5938,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6029,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6037,7 +6036,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6061,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6075,10 +6074,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
         <v>256</v>
-      </c>
-      <c r="D10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6086,7 +6085,7 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6094,53 +6093,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>222</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
         <v>224</v>
-      </c>
-      <c r="D13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
         <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
         <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
         <v>232</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6148,13 +6147,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6168,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6176,13 +6175,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6196,7 +6195,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6204,13 +6203,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6224,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,7 +6426,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6435,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6451,7 +6450,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6459,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6506,29 +6505,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6566,10 +6565,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6591,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6621,7 +6620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -6662,7 +6661,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6764,13 +6763,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6778,7 +6777,7 @@
         <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6792,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6970,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7178,17 +7177,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9832A10-EFA0-4A17-ABAA-82EC53D56702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7D54A-09F8-4C91-BEAF-47F992A19D49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4268,12 +4268,12 @@
   </si>
   <si>
     <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Sierra」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.12.3」とあります。このMacのOSのバージョンは10.12.3です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは4GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-1-2.png</t>
+「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-about-catalina.png</t>
   </si>
 </sst>
 </file>
@@ -5498,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7D54A-09F8-4C91-BEAF-47F992A19D49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925070B7-7B69-4261-ACF0-FD788B4F3FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="322">
   <si>
     <t>header1</t>
   </si>
@@ -278,12 +278,6 @@
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-  </t>
-  </si>
-  <si>
     <t>win10-6-13.svg</t>
   </si>
   <si>
@@ -316,13 +310,6 @@
   <si>
     <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
-  </t>
-  </si>
-  <si>
-    <t>bb9-app.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
@@ -4274,6 +4261,13 @@
   </si>
   <si>
     <t>macos-about-catalina.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4681,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4705,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4753,10 +4747,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4764,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4780,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4799,12 +4793,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4823,7 +4817,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4848,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4862,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4878,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4886,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4900,7 +4894,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4910,13 +4904,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4924,24 +4918,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4963,40 +4957,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5004,13 +4998,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5018,24 +5012,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5043,13 +5037,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5057,35 +5051,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5093,13 +5087,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5107,18 +5101,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5143,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5201,7 +5195,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5209,13 +5203,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5223,24 +5217,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5248,13 +5242,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5262,13 +5256,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5282,18 +5276,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5301,13 +5295,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5321,7 +5315,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5335,7 +5329,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5343,134 +5337,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5478,13 +5472,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5498,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -5539,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5547,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5561,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5575,13 +5569,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5589,13 +5583,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5603,13 +5597,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5617,24 +5611,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5642,24 +5636,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5690,7 +5684,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5714,25 +5708,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5740,37 +5734,37 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5778,18 +5772,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5905,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5913,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5937,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5948,18 +5942,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5967,13 +5961,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6004,7 +5998,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6012,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6028,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6036,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6047,12 +6041,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6060,13 +6054,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6074,18 +6068,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6093,53 +6087,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6147,13 +6141,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6167,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6175,13 +6169,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6189,13 +6183,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6203,13 +6197,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6217,18 +6211,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6236,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6250,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -6264,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -6278,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6292,7 +6286,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -6306,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -6320,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -6334,7 +6328,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6348,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6362,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6376,13 +6370,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6390,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -6426,7 +6420,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6434,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6450,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6458,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6477,7 +6471,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6491,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6505,34 +6499,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6540,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -6554,7 +6548,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6565,10 +6559,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6576,7 +6570,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6590,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6618,10 +6612,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6661,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6669,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6763,21 +6757,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6785,13 +6779,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6813,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6888,7 +6882,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6935,13 +6929,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6949,13 +6943,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6963,13 +6957,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6977,13 +6971,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6991,13 +6985,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7005,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7016,13 +7010,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7030,13 +7024,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7044,15 +7038,15 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7060,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -7074,55 +7068,41 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7177,17 +7157,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7195,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -7209,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -7265,7 +7245,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925070B7-7B69-4261-ACF0-FD788B4F3FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4052B6-C13D-4913-BFCF-5C04C6630115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -5667,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6614,7 +6614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4052B6-C13D-4913-BFCF-5C04C6630115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7055839-7B98-45F6-AFB9-D7AFBF974858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="323">
   <si>
     <t>header1</t>
   </si>
@@ -4268,6 +4268,9 @@
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 (スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
   </si>
 </sst>
 </file>
@@ -5667,7 +5670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5880,10 +5883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5926,47 +5929,52 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>124</v>
       </c>
     </row>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7055839-7B98-45F6-AFB9-D7AFBF974858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A4C4F-86AF-4615-AD5A-DB567CCE28B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1837,16 +1837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。   </t>
-    <rPh sb="25" eb="26">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>00_BlankDesktop.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4271,6 +4261,28 @@
   </si>
   <si>
     <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。以降の手順はネットワークにつないで行っても大丈夫です。  </t>
+    <rPh sb="25" eb="26">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4678,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4694,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4777,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4851,7 +4863,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4859,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4883,7 +4895,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4897,7 +4909,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4907,13 +4919,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4921,24 +4933,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4946,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4960,40 +4972,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5001,13 +5013,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5015,24 +5027,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
         <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5040,13 +5052,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5054,35 +5066,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5090,13 +5102,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5104,18 +5116,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5129,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5251,7 +5263,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5401,7 +5413,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5470,18 +5482,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -5536,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5544,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5558,13 +5570,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5572,13 +5584,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5586,13 +5598,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5600,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5614,24 +5626,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
         <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5639,24 +5651,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +5699,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5695,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,22 +5723,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -5737,13 +5749,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5751,15 +5763,15 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5775,18 +5787,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>245</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5902,7 +5914,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5910,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5926,12 +5938,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5939,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6030,7 +6042,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6038,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6062,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6076,10 +6088,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6087,7 +6099,7 @@
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6095,53 +6107,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>218</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
         <v>220</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" t="s">
         <v>224</v>
-      </c>
-      <c r="D15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
         <v>228</v>
-      </c>
-      <c r="D17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6149,13 +6161,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6169,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6177,13 +6189,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6197,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6205,13 +6217,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6225,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6428,7 +6440,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6436,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6452,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6460,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6507,29 +6519,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,10 +6579,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6592,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6663,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6765,13 +6777,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6779,7 +6791,7 @@
         <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6793,7 +6805,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6937,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6971,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7165,17 +7177,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A4C4F-86AF-4615-AD5A-DB567CCE28B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF268D41-CDE5-41DA-A372-7F0DC1111B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4253,35 +4253,35 @@
     <t>macos-about-catalina.png</t>
   </si>
   <si>
-    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。以降の手順はネットワークにつないで行っても大丈夫です。  </t>
+    <rPh sb="25" eb="26">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下の手順はBb9 が利用可能になる4/2 以降に実施してください。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 (スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。以降の手順はネットワークにつないで行っても大丈夫です。  </t>
-    <rPh sb="25" eb="26">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ダイジョウブ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5141,7 +5141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6634,7 +6634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -6944,12 +6944,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7136,7 +7136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF268D41-CDE5-41DA-A372-7F0DC1111B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A67648-09CC-431C-B9B9-DC9BD99F0652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3793,73 +3793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
-    <rPh sb="0" eb="2">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広島大学必携PC初期講習会（自宅ネットワークでの自習形式）</t>
     <rPh sb="14" eb="16">
       <t>ジタク</t>
@@ -4282,6 +4215,79 @@
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 (スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。以下の手順はアカウントに関連したサービスが全て利用可能になる4/2 以降に実施してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>スベ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4690,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4789,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -5584,13 +5590,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5682,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5728,17 +5734,17 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -5768,7 +5774,7 @@
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
         <v>249</v>
@@ -5798,7 +5804,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5938,12 +5944,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6440,7 +6446,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6464,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6519,24 +6525,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6634,7 +6640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -6675,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6949,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A67648-09CC-431C-B9B9-DC9BD99F0652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5126EEE-BE94-4BEC-B2C6-5DDA83E4CC8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2804,65 +2804,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヒツヨウダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-start0.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まず広大アカウント(@hiroshima-u.ac.jpを含め)を入力します。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-account.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次に広大アカウントのパスワードを入力します。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3135,45 +3081,6 @@
   </si>
   <si>
     <t>ch7-teams-selected-team.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
-基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
-このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ヘンジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4287,6 +4194,90 @@
     </rPh>
     <rPh sb="138" eb="139">
       <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、アカウント名でサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずアカウント名(@hiroshima-u.ac.jpを含め)を入力します。</t>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次にアカウント名のパスワードを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
+基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
+このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、アカウント名を持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4696,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4795,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4852,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4869,7 +4860,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4877,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4893,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4925,13 +4916,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4939,24 +4930,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,13 +4955,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,40 +4969,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5019,13 +5010,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5033,24 +5024,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5058,13 +5049,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5072,35 +5063,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5108,13 +5099,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5122,18 +5113,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -5590,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5688,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5734,17 +5725,17 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -5774,7 +5765,7 @@
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
         <v>249</v>
@@ -5804,7 +5795,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5944,12 +5935,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5957,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6056,7 +6047,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6446,7 +6437,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6470,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6525,24 +6516,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6681,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6955,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7183,17 +7174,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5126EEE-BE94-4BEC-B2C6-5DDA83E4CC8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F8928-D56C-465B-B2D0-22241676EA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -778,105 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;（4/4～5 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
-&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
-&lt;dd&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
-&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="256" eb="258">
-      <t>トクセツ</t>
-    </rPh>
-    <rPh sb="258" eb="260">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="271" eb="273">
-      <t>ヘイジツ</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>ブンシツ</t>
-    </rPh>
-    <rPh sb="300" eb="301">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="301" eb="304">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="304" eb="305">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="321" eb="323">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="323" eb="326">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="326" eb="327">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="456" eb="458">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="458" eb="460">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="460" eb="462">
-      <t>セイキョウ</t>
-    </rPh>
-    <rPh sb="462" eb="465">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">この画面になったら「続ける」をクリックしてください。
  これで接続の設定が完了しました。 接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-3&lt;/span&gt;
   </t>
@@ -4279,6 +4180,24 @@
     <rPh sb="163" eb="165">
       <t>ヘンジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;（4/5～7 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
+&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
+&lt;dd&gt;（4/5～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
+&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4687,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4711,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4745,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4786,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4810,7 +4729,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4860,7 +4779,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4892,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4906,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4916,13 +4835,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4930,24 +4849,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,40 +4888,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5010,13 +4929,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5024,24 +4943,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5049,13 +4968,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5063,35 +4982,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5099,13 +5018,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5113,18 +5032,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5207,7 +5126,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5215,13 +5134,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5229,24 +5148,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5254,13 +5173,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5268,13 +5187,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5288,18 +5207,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5307,13 +5226,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5327,7 +5246,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5341,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5349,134 +5268,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5484,13 +5403,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5553,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5567,13 +5486,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5581,13 +5500,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5595,13 +5514,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5609,13 +5528,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5623,24 +5542,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
         <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5648,24 +5567,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5615,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5704,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,22 +5639,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -5746,13 +5665,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5760,15 +5679,15 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5776,7 +5695,7 @@
         <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5784,18 +5703,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>244</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5911,7 +5830,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5919,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5935,12 +5854,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5948,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5962,7 +5881,7 @@
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6039,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6047,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6071,7 +5990,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6085,10 +6004,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6096,7 +6015,7 @@
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6104,53 +6023,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
         <v>219</v>
-      </c>
-      <c r="D13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
         <v>221</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
         <v>223</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" t="s">
         <v>227</v>
-      </c>
-      <c r="D17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6158,13 +6077,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6178,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6186,13 +6105,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6206,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6214,13 +6133,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6234,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6359,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6437,7 +6356,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6445,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,7 +6380,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6469,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6516,29 +6435,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6565,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6576,10 +6495,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6601,7 +6520,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6672,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6774,13 +6693,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6788,7 +6707,7 @@
         <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6802,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6824,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6899,7 +6818,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6946,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6980,7 +6899,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7002,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7016,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7027,13 +6946,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7041,13 +6960,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7055,10 +6974,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7174,17 +7093,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7262,7 +7181,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F8928-D56C-465B-B2D0-22241676EA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,10 +4187,7 @@
 &lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;（4/5～7 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
-&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
+&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
 &lt;dd&gt;（4/5～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
 &lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
@@ -4665,7 +4662,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4727,7 +4724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>322</v>
       </c>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D129E8C3-DED3-426D-8121-EA5C79B40B1B}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583CE264-7A56-4FD8-AAE8-26380AAE5E0D}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="165" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="795" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ch7" sheetId="17" r:id="rId9"/>
     <sheet name="ch8" sheetId="4" r:id="rId10"/>
     <sheet name="ch9" sheetId="8" r:id="rId11"/>
-    <sheet name="ch10" sheetId="16" r:id="rId12"/>
+    <sheet name="ch9a" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1380,10 +1380,6 @@
   </si>
   <si>
     <t>00_BlankDesktop.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Mac chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1958,10 +1954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bb9-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ESET-info-maOS-update.png</t>
   </si>
   <si>
@@ -2967,24 +2959,6 @@
  &lt;/ul&gt;</t>
     <rPh sb="137" eb="139">
       <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macOS 10以前の方は、以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4311,6 +4285,34 @@
     </rPh>
     <rPh sb="336" eb="338">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="88" eb="90">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4720,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4736,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -4744,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4779,7 +4781,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4819,17 +4821,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -4851,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4928,7 +4930,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4944,7 +4946,7 @@
         <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,12 +4970,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -4981,12 +4983,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,7 +4998,7 @@
     </row>
     <row r="11" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,843 +5023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5874,7 +5040,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,27 +5064,863 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -5929,13 +5931,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,15 +5945,15 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5967,18 +5969,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6096,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6126,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6193,7 +6195,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6217,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6225,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6272,29 +6274,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6332,10 +6334,10 @@
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6357,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6387,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6404,7 +6406,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6436,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6447,7 +6449,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6455,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6463,7 +6465,7 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6471,13 +6473,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6485,13 +6487,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6499,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -6510,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6521,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6607,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -6615,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6639,7 +6641,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6653,10 +6655,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6664,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6672,58 +6674,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
         <v>186</v>
-      </c>
-      <c r="D16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6731,13 +6733,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6751,7 +6753,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6759,13 +6761,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6779,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6787,13 +6789,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6807,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6993,8 +6995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7010,7 +7012,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7034,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7042,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7136,13 +7138,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7150,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7164,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7186,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -7261,7 +7263,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -7294,7 +7296,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7305,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7316,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7330,7 +7332,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7349,7 +7351,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7377,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583CE264-7A56-4FD8-AAE8-26380AAE5E0D}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754A68D5-C66C-4CA6-821C-C59E86256914}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="795" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ch7" sheetId="17" r:id="rId9"/>
     <sheet name="ch8" sheetId="4" r:id="rId10"/>
     <sheet name="ch9" sheetId="8" r:id="rId11"/>
-    <sheet name="ch9a" sheetId="16" r:id="rId12"/>
+    <sheet name="ch91" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -5023,7 +5023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -6389,7 +6389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754A68D5-C66C-4CA6-821C-C59E86256914}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A164F1-4241-4ACA-9E1E-3209BDA54347}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="326">
   <si>
     <t>header1</t>
   </si>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
-  </t>
   </si>
   <si>
     <t>初期設定</t>
@@ -253,11 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
-広大ID（学生番号）、広大パスワードを入力し、「Myもみじへログイン」をクリックしてください。
-   </t>
   </si>
   <si>
     <t>win10-6-10.svg</t>
@@ -3336,34 +3327,6 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援サイト)&lt;/h2&gt; </t>
-    <rPh sb="38" eb="40">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のURLから広島大学Moodleにアクセスしてください。
-https://moodle.huc.hiroshima-u.ac.jp/
-（※ できればIMCホームページからのリンク場所を指示したい）</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>シジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3958,28 +3921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">以下の手順はMoodleが利用可能になる4/2 以降に実施してください。
-「Moodle」は、オープンソースで提供されているオンライン学習環境です。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-</t>
-    <rPh sb="55" eb="57">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 macOS appendix A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4313,6 +4254,102 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>ヒロシマダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期実習では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
+  </t>
+    <rPh sb="6" eb="8">
+      <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習環境です。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+</t>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
+    <rPh sb="38" eb="40">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学Moodleにアクセスしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「コース一覧」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
+「Myもみじへログイン」をクリックしてください。
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
+※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
+   </t>
+    <rPh sb="36" eb="38">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4706,7 +4743,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4722,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -4746,7 +4783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4760,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4780,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4794,10 +4831,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4821,17 +4858,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -4839,13 +4876,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -4853,13 +4890,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -4867,13 +4904,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -4881,13 +4918,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -4895,13 +4932,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -4909,13 +4946,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4927,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4943,10 +4980,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,12 +5007,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -4983,32 +5020,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5023,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5037,10 +5079,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5048,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5072,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5086,7 +5128,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5138,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5110,24 +5152,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,40 +5191,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5190,13 +5232,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5204,24 +5246,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5229,13 +5271,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5243,35 +5285,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5279,13 +5321,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5293,18 +5335,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5319,7 +5361,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5332,10 +5374,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5343,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5367,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5381,13 +5423,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5395,13 +5437,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5409,24 +5451,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5434,13 +5476,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5448,13 +5490,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5462,24 +5504,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5487,13 +5529,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5501,13 +5543,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5515,13 +5557,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5529,134 +5571,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5664,13 +5706,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5684,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5698,10 +5740,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -5733,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5747,13 +5789,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5761,13 +5803,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5775,13 +5817,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5789,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5803,24 +5845,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5828,24 +5870,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5860,7 +5902,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5873,10 +5915,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5884,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,30 +5942,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,37 +5973,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5969,18 +6011,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,7 +6122,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6093,10 +6135,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6120,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6128,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6139,18 +6181,18 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6158,13 +6200,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6178,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6192,10 +6234,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6203,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6211,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6227,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6238,7 +6280,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6246,13 +6288,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6260,13 +6302,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6274,34 +6316,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6309,13 +6351,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6323,21 +6365,21 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6345,13 +6387,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -6359,13 +6401,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6403,10 +6445,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6422,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6430,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6438,7 +6480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6449,15 +6491,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6465,7 +6507,7 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6473,13 +6515,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6487,13 +6529,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6501,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -6512,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6523,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6568,8 +6610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6582,10 +6624,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,7 +6651,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -6617,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6628,12 +6670,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6641,13 +6683,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6655,18 +6697,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" t="s">
         <v>210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6674,58 +6716,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6733,13 +6775,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6747,13 +6789,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6761,13 +6803,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6775,13 +6817,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6789,13 +6831,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6803,18 +6845,18 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6822,13 +6864,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6836,13 +6878,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6850,13 +6892,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,13 +6906,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6878,13 +6920,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6892,13 +6934,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6906,13 +6948,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6920,13 +6962,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6934,13 +6976,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6948,13 +6990,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,13 +7004,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,13 +7018,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6993,10 +7035,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7009,10 +7051,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7036,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7044,7 +7086,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7055,7 +7097,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,13 +7119,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7091,18 +7133,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,13 +7166,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7138,21 +7180,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7160,13 +7202,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7174,13 +7216,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7188,13 +7230,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7202,13 +7244,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7216,18 +7258,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7245,60 +7287,60 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
       <c r="B23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>313</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7307,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7318,88 +7360,99 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="38" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A164F1-4241-4ACA-9E1E-3209BDA54347}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF20B463-EEF4-4E67-8EE8-667608F8358B}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="327">
   <si>
     <t>header1</t>
   </si>
@@ -52,11 +52,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
- </t>
   </si>
   <si>
     <t xml:space="preserve">OSで使用する言語を選びます。「日本語」を選択し、下の矢印をクリックしてください。 
@@ -205,9 +200,6 @@
   </t>
   </si>
   <si>
-    <t>win10-6-02.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
   </si>
   <si>
@@ -317,11 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,10 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Microsoft Office をインストールしましょう。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft Officeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,19 +438,6 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「学生の個人所有PCへのインストールはここから」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,10 +492,6 @@
   </si>
   <si>
     <t>mac-2-23.png</t>
-  </si>
-  <si>
-    <t>win10-4-24.svg</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">ダウンロードしたファイルを実行すると右図のような表示が出るので、Chromeのアイコンを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
@@ -1548,10 +1514,6 @@
   </si>
   <si>
     <t>Chromeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chromeをインストールしましょう。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1889,16 +1851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>link-to-eset-install-proc.png</t>
-  </si>
-  <si>
-    <t>右側メニューの「ダウンロード」のリンクをたどります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>type-of-eset-install.png</t>
-  </si>
-  <si>
     <t>download-eset-links.png</t>
   </si>
   <si>
@@ -1942,171 +1894,6 @@
   <si>
     <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESET-info-maOS-update.png</t>
-  </si>
-  <si>
-    <t>「macOSのアップデートをインストール」のチェックを外したため、「保護の状態」では「このコンピュータには、全ての利用可能なオペレーティングシステムのアップデートがインストールされていません。」が表示されることがありますが、ESETが正式に最新のmacOSに対応するまで、この通知は無視してください。</t>
-    <rPh sb="27" eb="28">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホゴ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ムシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
-オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ソウホウコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="228" eb="229">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>サンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3087,12 +2874,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
-パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>macos-about-catalina.png</t>
   </si>
   <si>
@@ -3264,17 +3045,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィルス対策ソフトESETをインストールしましょう。</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac chap.2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3429,13 +3199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
-   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
     <rPh sb="0" eb="1">
       <t>シタ</t>
@@ -3499,40 +3262,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2022 Mac chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
-広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、Microsoft Office365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
-ただしこのOffice 365アプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。</t>
-    <rPh sb="31" eb="33">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="363" eb="365">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="374" eb="376">
-      <t>カンケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3586,10 +3315,6 @@
     <rPh sb="137" eb="138">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3815,15 +3540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
-（※ Myもみじでのバナー掲示イメージ）
-  </t>
-    <rPh sb="50" eb="52">
-      <t>ケイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">一番最初にBb9に入ったときだけ、この画面が開きます。
 「閉じる」をクリックしてください。
   </t>
@@ -3833,85 +3549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2回目からはBb9に入ったら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
-&lt;dl&gt;
-&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
-  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のためにコース開設が遅れています。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
-    <rPh sb="10" eb="11">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="110" eb="113">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="294" eb="296">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="296" eb="298">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="298" eb="300">
-      <t>ニュウモン</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="321" eb="323">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="324" eb="325">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="340" eb="342">
-      <t>アンナイ</t>
-    </rPh>
-    <rPh sb="345" eb="347">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「Myもみじ」のトップページに戻って、今度は「Bb9」を使ってみましょう。
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。</t>
@@ -4017,34 +3654,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2022 Mac chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行います。</t>
-    <rPh sb="0" eb="4">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="43" eb="48">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4174,95 +3783,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>包括ライセンスでMicrosoft Office365 アプリをインストールした場合は、Microsoft Teamsは既にインストールされているはずです。検索ウィンドウで「Teams」を検索すれば出てくるはずです。
-もし別途Officeを購入したため、Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="252" eb="253">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="289" eb="291">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="313" eb="315">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="317" eb="318">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="331" eb="333">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="333" eb="335">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="336" eb="338">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="88" eb="90">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PC初期実習では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
-  </t>
-    <rPh sb="6" eb="8">
-      <t>ジッシュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4297,17 +3818,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次のリンクから広島大学Moodleにアクセスしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「コース一覧」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -4350,6 +3860,748 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期実習では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をします。準備する内容を以下にあげます。
+  </t>
+    <rPh sb="6" eb="8">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトESETをインストールしましょう。ウィルス対策ソフトを既にインストールしている方は、この章を飛ばして第３章に進んでください。</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Office をインストールしましょう。 既にインストールしている方はこの章を飛ばして第７章へ進んでください。</t>
+    <rPh sb="31" eb="32">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学Moodleにログインしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+※授業用MoodleのURLに変更予定</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>ヘンコウヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
+オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は教員が先に説明するはずなので、環境設定などは教員の指示にしたがってください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包括ライセンスでMicrosoft Office365 アプリをインストールした場合は、Microsoft Teamsは既にインストールされているはずです。検索ウィンドウで「Teams」を検索すれば出てくるはずです。
+もし別途Officeを購入したなどで Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学では授業で使うWebブラウザとしてSafariのほかにChromeが必要です。Chromeをインストールしましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
+すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
+※ OSバージョンの違いによって出てくる画面がこのテキストと違うことがありますが、その場合も基本的に言われるままにして大丈夫なはずです。もし不安に思われる内容があれば、第９章の問い合わせ先へ質問してください。
+ </t>
+    <rPh sb="167" eb="168">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="203" eb="206">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="216" eb="219">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+&lt;strong&gt;※ 現在の最新のmacOSは Big Sur です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
+パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <rPh sb="193" eb="195">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirodaiID-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
+※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ms-download-home.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+</t>
+    <rPh sb="37" eb="39">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;※ 現在の学生向けインストールページの確認が必要&lt;/font&gt;
+下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;font color="red"&gt;最新バージョンのESETでは画面構成が少し違うかもしれません&lt;/font&gt;
+ 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
+ </t>
+    <rPh sb="18" eb="20">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ガメンコウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+&lt;font color="red"&gt; ※ 授業用Moodleに変更予定。もしくはセンターのMFA説明ページへ&lt;/font&gt;
+</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="141" eb="144">
+      <t>ジュギョウヨウ</t>
+    </rPh>
+    <rPh sb="151" eb="155">
+      <t>ヘンコウヨテイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+ ※ 最近（たとえばこのテキストの第２章）で広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
+    <rPh sb="152" eb="154">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
+広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、Microsoft Office365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
+ただしこのOffice 365アプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。
+※ 図の中にある「Office 365 Proplus」は現在「Microsoft 365 Apps for Enterprise」に改称されていますが、Office 365 アプリとしての位置づけには変更ありません</t>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="356" eb="358">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="365" eb="367">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="451" eb="453">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="517" eb="519">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="523" eb="525">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-home0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-home1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+※ 最近（たとえばこのテキストの第6章）で広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
+</t>
+    <rPh sb="95" eb="97">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">時間割の中に「大学教育入門」のリンクがあるはずです。これをクリックするとBb9の「大学教育入門」コースに直接アクセスできます。
+&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
+  </t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="41" eb="47">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9の「大学教育入門」コースのトップページが表示されます。ここで「大学教育入門」の教材の閲覧およびダウンロードや、課題の提出などができます。
+「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。
+&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
+</t>
+    <rPh sb="5" eb="7">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="40">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-13.svg</t>
+  </si>
+  <si>
+    <t>もみじTOPページのバナーからBb9に入ったら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>キョウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4743,7 +4995,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4759,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -4783,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4797,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4817,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4831,10 +5083,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,17 +5110,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -4876,13 +5128,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -4890,13 +5142,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -4904,13 +5156,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -4918,13 +5170,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -4932,13 +5184,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -4946,13 +5198,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4980,10 +5232,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,12 +5259,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5020,27 +5272,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5065,8 +5317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5079,10 +5331,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5090,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,7 +5358,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5114,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5128,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,13 +5390,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5152,24 +5404,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,13 +5429,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,40 +5443,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5232,13 +5484,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5246,24 +5498,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5271,13 +5523,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5285,35 +5537,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5321,13 +5573,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5335,18 +5587,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +5613,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5374,10 +5626,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,15 +5653,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5423,13 +5675,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5437,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5451,24 +5703,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5476,13 +5728,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5490,13 +5742,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5504,24 +5756,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5529,13 +5781,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5543,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5557,13 +5809,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5571,134 +5823,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5706,13 +5958,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5726,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5740,10 +5992,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -5775,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5789,27 +6041,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5817,13 +6069,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5831,13 +6083,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5845,24 +6097,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5870,24 +6122,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5899,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5913,12 +6165,12 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,87 +6194,78 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>251</v>
+      <c r="A15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,11 +6345,6 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6121,106 +6359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6234,10 +6373,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,7 +6400,106 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6269,7 +6507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6280,7 +6518,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6288,13 +6526,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6302,13 +6540,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6316,48 +6554,48 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6365,58 +6603,50 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6431,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6445,10 +6675,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6472,7 +6702,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6480,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6491,7 +6721,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6499,29 +6729,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6529,13 +6759,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6543,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -6554,7 +6784,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6565,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6610,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6624,10 +6854,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6651,7 +6881,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -6659,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6670,26 +6900,26 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6697,18 +6927,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6716,58 +6946,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6775,13 +7005,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6789,13 +7019,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6803,13 +7033,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6817,13 +7047,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6831,13 +7061,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6845,18 +7075,18 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6864,13 +7094,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6878,13 +7108,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6892,13 +7122,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,13 +7136,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6920,13 +7150,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6934,13 +7164,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6948,13 +7178,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,13 +7192,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6976,13 +7206,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6990,13 +7220,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,13 +7234,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7018,13 +7248,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7035,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7051,10 +7281,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7062,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7078,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7086,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7097,7 +7327,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,13 +7349,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7133,18 +7363,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,13 +7396,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7180,21 +7410,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7202,13 +7432,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7216,13 +7446,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7230,13 +7460,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7244,13 +7474,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7258,18 +7488,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7288,13 +7518,13 @@
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7302,13 +7532,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7316,18 +7546,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7349,18 +7579,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7371,88 +7601,113 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="40" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF20B463-EEF4-4E67-8EE8-667608F8358B}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD6697-3AD9-4FB2-B8ED-87229B76141C}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3934,27 +3934,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次のリンクから広島大学Moodleにログインしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-※授業用MoodleのURLに変更予定</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="139">
-      <t>ヘンコウヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
 オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は教員が先に説明するはずなので、環境設定などは教員の指示にしたがってください。</t>
     <rPh sb="0" eb="2">
@@ -4602,6 +4581,27 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学Moodleにログインしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+&lt;font color="red"&gt;※授業用MoodleのURLに変更予定&lt;/font&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="153" eb="157">
+      <t>ヘンコウヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5218,7 +5218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5380,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6055,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6214,23 +6214,23 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
         <v>311</v>
-      </c>
-      <c r="D9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
         <v>197</v>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6678,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,7 +6737,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6745,13 +6745,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6913,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7267,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7284,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7369,7 +7369,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7421,7 +7421,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
         <v>201</v>
@@ -7524,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7590,7 +7590,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7615,7 +7615,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7626,13 +7626,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7640,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD6697-3AD9-4FB2-B8ED-87229B76141C}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B62B7CA9-C9EB-4CBA-8BD3-C27E931B4844}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
   <si>
     <t>header1</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t>win10-6-10.svg</t>
   </si>
   <si>
     <t>win10-6-11.svg</t>
@@ -5011,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -5049,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5110,17 +5107,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5128,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5142,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5198,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5218,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5232,10 +5229,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,12 +5256,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5272,27 +5269,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5358,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5366,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5380,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5390,13 +5387,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5404,24 +5401,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,13 +5426,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,40 +5440,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5484,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5498,24 +5495,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5523,13 +5520,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5537,35 +5534,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5573,13 +5570,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5587,18 +5584,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5629,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5661,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5681,7 +5678,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5689,13 +5686,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5703,24 +5700,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5728,13 +5725,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5742,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5762,18 +5759,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5781,13 +5778,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5801,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5815,7 +5812,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5823,134 +5820,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5958,13 +5955,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6019,7 +6016,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6027,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6041,13 +6038,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6055,13 +6052,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6069,13 +6066,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6083,13 +6080,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6097,24 +6094,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6122,24 +6119,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6170,7 +6167,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,54 +6191,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
         <v>310</v>
-      </c>
-      <c r="D9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6249,18 +6246,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>195</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6384,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6408,7 +6405,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6419,18 +6416,18 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6438,13 +6435,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6472,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6507,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6526,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6540,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -6554,34 +6551,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6603,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6617,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6631,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6678,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6686,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6702,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6721,7 +6718,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6729,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6745,13 +6742,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6759,13 +6756,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6773,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -6784,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6795,7 +6792,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6857,7 +6854,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6865,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,7 +6878,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -6889,7 +6886,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6900,12 +6897,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -6913,13 +6910,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6927,18 +6924,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6946,58 +6943,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>171</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
         <v>173</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
         <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
         <v>180</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7005,13 +7002,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7025,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7033,13 +7030,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7047,13 +7044,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7061,13 +7058,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7075,18 +7072,18 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7094,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7108,7 +7105,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7122,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7136,7 +7133,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7150,7 +7147,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7164,7 +7161,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7178,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7192,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7206,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7220,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -7234,13 +7231,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7248,7 +7245,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -7267,8 +7264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7281,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,7 +7305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7316,7 +7313,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7369,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7410,21 +7407,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7432,13 +7429,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7460,7 +7457,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -7518,13 +7515,13 @@
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7532,13 +7529,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7546,18 +7543,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7579,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7590,7 +7587,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7601,13 +7598,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7615,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7626,13 +7623,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7640,18 +7637,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7659,7 +7656,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -7673,13 +7670,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -7687,13 +7684,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7701,13 +7698,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B62B7CA9-C9EB-4CBA-8BD3-C27E931B4844}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA73A99-0F15-47D5-B729-9BB1162D37E8}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11873" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="18226" windowHeight="11873" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="330">
   <si>
     <t>header1</t>
   </si>
@@ -3330,46 +3330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここから先は補足情報であり、この実習で設定する必要はありません。後日必要に応じて行ってください。
  </t>
     <rPh sb="4" eb="5">
@@ -3424,16 +3384,1089 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第７章で紹介します。
+    <t>&lt;h3&gt;点検届の提出&lt;/h3&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点検届の提出方法と、必携PC使用時の問い合わせ窓口を案内します。</t>
+    <rPh sb="0" eb="3">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒッケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にBb9に入ったときだけ、この画面が開きます。
+「閉じる」をクリックしてください。
   </t>
-    <rPh sb="335" eb="336">
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 macOS appendix A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２章（この章）以降では、ネットワーク接続環境と、学生番号（広大ID）および学生番号と一緒に入手したパスワード（広大パスワード）が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし無い場合は、このテキストの第８章まで飛んで広島大学のWi-Fiネットワーク環境にまず接続してから、ここに戻ってきてください。</t>
+    <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
-    <rPh sb="337" eb="338">
+    <rPh sb="2" eb="3">
       <t>ショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（ただしこの図は在学生向けの一例で、新入生に表示されるものとは異なります）
+新入生共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
+&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
+</t>
+    <rPh sb="98" eb="100">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="354" eb="355">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="413" eb="417">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="444" eb="446">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="449" eb="450">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="451" eb="452">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="454" eb="457">
+      <t>コウセイイン</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="476" eb="481">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="486" eb="488">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="489" eb="492">
+      <t>ギムヅ</t>
+    </rPh>
+    <rPh sb="504" eb="506">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="512" eb="516">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="520" eb="522">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="523" eb="524">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="528" eb="530">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="531" eb="533">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
+    <rPh sb="38" eb="40">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「コース一覧」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
+「Myもみじへログイン」をクリックしてください。
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
+※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
+   </t>
+    <rPh sb="36" eb="38">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期実習では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をします。準備する内容を以下にあげます。
+  </t>
+    <rPh sb="6" eb="8">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトESETをインストールしましょう。ウィルス対策ソフトを既にインストールしている方は、この章を飛ばして第３章に進んでください。</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Office をインストールしましょう。 既にインストールしている方はこの章を飛ばして第７章へ進んでください。</t>
+    <rPh sb="31" eb="32">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
+オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は教員が先に説明するはずなので、環境設定などは教員の指示にしたがってください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包括ライセンスでMicrosoft Office365 アプリをインストールした場合は、Microsoft Teamsは既にインストールされているはずです。検索ウィンドウで「Teams」を検索すれば出てくるはずです。
+もし別途Officeを購入したなどで Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学では授業で使うWebブラウザとしてSafariのほかにChromeが必要です。Chromeをインストールしましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
+すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
+※ OSバージョンの違いによって出てくる画面がこのテキストと違うことがありますが、その場合も基本的に言われるままにして大丈夫なはずです。もし不安に思われる内容があれば、第９章の問い合わせ先へ質問してください。
+ </t>
+    <rPh sb="167" eb="168">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="203" eb="206">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="216" eb="219">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirodaiID-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
+※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ms-download-home.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+</t>
+    <rPh sb="37" eb="39">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;※ 現在の学生向けインストールページの確認が必要&lt;/font&gt;
+下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;font color="red"&gt;最新バージョンのESETでは画面構成が少し違うかもしれません&lt;/font&gt;
+ 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
+ </t>
+    <rPh sb="18" eb="20">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ガメンコウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+&lt;font color="red"&gt; ※ 授業用Moodleに変更予定。もしくはセンターのMFA説明ページへ&lt;/font&gt;
+</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="141" eb="144">
+      <t>ジュギョウヨウ</t>
+    </rPh>
+    <rPh sb="151" eb="155">
+      <t>ヘンコウヨテイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+ ※ 最近（たとえばこのテキストの第２章）で広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
+    <rPh sb="152" eb="154">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
+広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、Microsoft Office365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
+ただしこのOffice 365アプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。
+※ 図の中にある「Office 365 Proplus」は現在「Microsoft 365 Apps for Enterprise」に改称されていますが、Office 365 アプリとしての位置づけには変更ありません</t>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="356" eb="358">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="365" eb="367">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="451" eb="453">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="517" eb="519">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="523" eb="525">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-home0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-home1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9の「大学教育入門」コースのトップページが表示されます。ここで「大学教育入門」の教材の閲覧およびダウンロードや、課題の提出などができます。
+「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。
+&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
+</t>
+    <rPh sb="5" eb="7">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="40">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-13.svg</t>
+  </si>
+  <si>
+    <t>もみじTOPページのバナーからBb9に入ったら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>キョウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;初期実習サポート会場（日時場所は下記Webページ内）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;広島大学生協新入生サポートセンター（4/4～7 10:00～19:00、平日 10:00～17:00）&lt;/dd&gt;
+&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
+    <rPh sb="83" eb="85">
+      <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。
+&lt;strong&gt;Moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学Moodleにログインしてください。
+&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
+&lt;font color="red"&gt;※授業用MoodleのURLに変更予定&lt;/font&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="154" eb="158">
+      <t>ヘンコウヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3452,339 +4485,127 @@
 &lt;li&gt;&lt;a href="#omake"&gt;おまけ&lt;/a&gt;
 &lt;/li&gt;
 &lt;ul&gt; &lt;/ul&gt;
-+B17&lt;/ul&gt;
+&lt;/ul&gt;
 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;点検届の提出&lt;/h3&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Mac conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Mac chap.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Mac chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムのMoodleにログインしてみましょう。
-これらのサービスを利用するにはWebブラウザを使います。
-macOSではSafariというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;初期実習サポート会場（日時場所は下記Webページ内）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;（4/4～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
-&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
-    <rPh sb="83" eb="85">
-      <t>ジッシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>点検届の提出方法と、必携PC使用時の問い合わせ窓口を案内します。</t>
-    <rPh sb="0" eb="3">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+※ （このテキストの第6章などで）広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
+</t>
+    <rPh sb="91" eb="93">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学外からのアクセスの場合は、ここで多要素認証（MFA）の手続きが入ります。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクガイ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ヒッケイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アンナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一番最初にBb9に入ったときだけ、この画面が開きます。
-「閉じる」をクリックしてください。
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今度は広島大学のオンライン学習支援システム「Bb9」を使ってみましょう。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。</t>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Myもみじのトップページに表示されている時間割の中に「大学教育入門」のリンクがあるはずです。
+これをクリックするとBb9の「大学教育入門」コースに直接アクセスできます。
+&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
   </t>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Myもみじ」のトップページに戻って、今度は「Bb9」を使ってみましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。</t>
-    <rPh sb="28" eb="29">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 macOS appendix A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第２章（この章）以降では、ネットワーク接続環境と、学生番号（広大ID）および学生番号と一緒に入手したパスワード（広大パスワード）が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし無い場合は、このテキストの第８章まで飛んで広島大学のWi-Fiネットワーク環境にまず接続してから、ここに戻ってきてください。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒツヨウ</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="62" eb="68">
+      <t>ダイガクキョウイクニュウモン</t>
     </rPh>
     <rPh sb="73" eb="75">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Mac chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（ただしこの図は在学生向けの一例で、新入生に表示されるものとは異なります）
-新入生共通で表示されるものを簡単に説明すると：
-&lt;dl&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
-&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
-</t>
-    <rPh sb="98" eb="100">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="327" eb="329">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="345" eb="346">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="354" eb="355">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="413" eb="417">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここまでの作業で、広島大学には２つのオンライン学習支援システム「Moodle」「Bb9」があることに気づかれたと思います。
+広島大学では今年度「Bb9」と「Moodle」の２つのオンライン学習支援システムを併用します。来年度からは「Moodle」に一本化する予定です。
+しばらく面倒をおかけしますが、ご了解ください。</t>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
       <t>ヒロシマダイガク</t>
     </rPh>
-    <rPh sb="424" eb="426">
-      <t>セッシュ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="434" eb="435">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="444" eb="446">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="449" eb="450">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="451" eb="452">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="454" eb="457">
-      <t>コウセイイン</t>
-    </rPh>
-    <rPh sb="458" eb="459">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="471" eb="473">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="476" eb="481">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="486" eb="488">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="489" eb="492">
-      <t>ギムヅ</t>
-    </rPh>
-    <rPh sb="504" eb="506">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="512" eb="516">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="520" eb="522">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="523" eb="524">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="528" eb="530">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="531" eb="533">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Mac chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習環境です。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
+    <rPh sb="25" eb="29">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ライネンド</t>
+    </rPh>
+    <rPh sb="126" eb="129">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習支援システムです。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 </t>
     <rPh sb="18" eb="20">
@@ -3794,811 +4615,100 @@
       <t>ガクシュウ</t>
     </rPh>
     <rPh sb="32" eb="34">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
       <t>ヒロダイ</t>
     </rPh>
-    <rPh sb="61" eb="63">
+    <rPh sb="65" eb="67">
       <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
-    <rPh sb="38" eb="40">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「コース一覧」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
-「Myもみじへログイン」をクリックしてください。
-   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
-※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
-   </t>
-    <rPh sb="36" eb="38">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="53">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PC初期実習では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をします。準備する内容を以下にあげます。
+    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要なIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第７章で紹介しています。
   </t>
-    <rPh sb="6" eb="8">
-      <t>ジッシュウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィルス対策ソフトESETをインストールしましょう。ウィルス対策ソフトを既にインストールしている方は、この章を飛ばして第３章に進んでください。</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
       <t>ショウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Office をインストールしましょう。 既にインストールしている方はこの章を飛ばして第７章へ進んでください。</t>
-    <rPh sb="31" eb="32">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
-オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は教員が先に説明するはずなので、環境設定などは教員の指示にしたがってください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ソウホウコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="228" eb="229">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="259" eb="261">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>シジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>包括ライセンスでMicrosoft Office365 アプリをインストールした場合は、Microsoft Teamsは既にインストールされているはずです。検索ウィンドウで「Teams」を検索すれば出てくるはずです。
-もし別途Officeを購入したなどで Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="314" eb="316">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="318" eb="319">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="332" eb="334">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
-    <rPh sb="0" eb="4">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="43" eb="48">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学では授業で使うWebブラウザとしてSafariのほかにChromeが必要です。Chromeをインストールしましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Macの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
-※ OSバージョンの違いによって出てくる画面がこのテキストと違うことがありますが、その場合も基本的に言われるままにして大丈夫なはずです。もし不安に思われる内容があれば、第９章の問い合わせ先へ質問してください。
- </t>
-    <rPh sb="167" eb="168">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="203" eb="206">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="216" eb="219">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>フアン</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="243" eb="244">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
 「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
-&lt;strong&gt;※ 現在の最新のmacOSは Big Sur です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
+&lt;strong&gt;※ 現在最新のmacOSの名前は Big Sur です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
 パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
     <rPh sb="193" eb="195">
       <t>ゲンザイ</t>
     </rPh>
-    <rPh sb="196" eb="198">
+    <rPh sb="195" eb="197">
       <t>サイシン</t>
     </rPh>
-    <rPh sb="237" eb="238">
+    <rPh sb="204" eb="206">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
       <t>カナラ</t>
     </rPh>
-    <rPh sb="239" eb="241">
+    <rPh sb="241" eb="243">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="245" eb="247">
+    <rPh sb="247" eb="249">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hirodaiID-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
-※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
-&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
-    <rPh sb="21" eb="23">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ms-download-home.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-</t>
-    <rPh sb="37" eb="39">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;font color="red"&gt;※ 現在の学生向けインストールページの確認が必要&lt;/font&gt;
-下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="20" eb="22">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;font color="red"&gt;最新バージョンのESETでは画面構成が少し違うかもしれません&lt;/font&gt;
- 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
- </t>
-    <rPh sb="18" eb="20">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>ガメンコウセイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-&lt;font color="red"&gt; ※ 授業用Moodleに変更予定。もしくはセンターのMFA説明ページへ&lt;/font&gt;
-</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="141" eb="144">
-      <t>ジュギョウヨウ</t>
-    </rPh>
-    <rPh sb="151" eb="155">
-      <t>ヘンコウヨテイ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
- ※ 最近（たとえばこのテキストの第２章）で広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
-    <rPh sb="152" eb="154">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
-広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、Microsoft Office365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
-ただしこのOffice 365アプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。
-※ 図の中にある「Office 365 Proplus」は現在「Microsoft 365 Apps for Enterprise」に改称されていますが、Office 365 アプリとしての位置づけには変更ありません</t>
-    <rPh sb="31" eb="33">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="363" eb="365">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="374" eb="376">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="451" eb="453">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="489" eb="491">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="517" eb="519">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="523" eb="525">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>momiji-home0.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>momiji-home1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-※ 最近（たとえばこのテキストの第6章）で広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
-</t>
-    <rPh sb="95" eb="97">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">時間割の中に「大学教育入門」のリンクがあるはずです。これをクリックするとBb9の「大学教育入門」コースに直接アクセスできます。
-&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
-  </t>
+    <t>点検届の提出と、問い合わせ先紹介</t>
     <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="7" eb="13">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="41" eb="47">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ワケ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9の「大学教育入門」コースのトップページが表示されます。ここで「大学教育入門」の教材の閲覧およびダウンロードや、課題の提出などができます。
-「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。
-&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
-</t>
-    <rPh sb="5" eb="7">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>キョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="40">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>テイシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-13.svg</t>
-  </si>
-  <si>
-    <t>もみじTOPページのバナーからBb9に入ったら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
-    <rPh sb="19" eb="20">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>キョウザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広島大学Moodleにログインしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-&lt;font color="red"&gt;※授業用MoodleのURLに変更予定&lt;/font&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="153" eb="157">
-      <t>ヘンコウヨテイ</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;多要素認証(MFA)の設定&lt;/h2&gt; </t>
+    <rPh sb="22" eb="27">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムのMoodleにログインしてみましょう。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;Moodleにログインする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="137" eb="142">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5046,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5067,7 +5177,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5107,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5117,7 +5227,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5139,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5213,10 +5323,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5232,7 +5342,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5256,50 +5366,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5355,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5363,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5377,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5976,7 +6091,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6016,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6052,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6167,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6196,7 +6311,7 @@
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6211,23 +6326,23 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
@@ -6373,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6496,7 +6611,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6586,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6656,9 +6771,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6675,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6702,12 +6817,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6718,7 +6833,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6726,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6734,7 +6849,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6742,13 +6857,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6756,7 +6871,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6765,15 +6880,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6781,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6792,22 +6901,25 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6815,6 +6927,9 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6823,6 +6938,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6837,8 +6957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6854,7 +6974,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7262,10 +7382,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7281,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7305,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7313,7 +7433,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7366,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7438,198 +7558,189 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>296</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7637,73 +7748,92 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>69</v>
       </c>
     </row>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA73A99-0F15-47D5-B729-9BB1162D37E8}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F468B8E-385E-403E-A3F3-34794C559F12}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="18226" windowHeight="11873" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2720,11 +2720,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここでは、Microsoft Officeのインストールを行います。
  &lt;ul&gt;
 &lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;
@@ -4137,44 +4132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;font color="red"&gt;※ 現在の学生向けインストールページの確認が必要&lt;/font&gt;
-下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="20" eb="22">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;font color="red"&gt;最新バージョンのESETでは画面構成が少し違うかもしれません&lt;/font&gt;
- 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
- </t>
-    <rPh sb="18" eb="20">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>ガメンコウセイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
 &lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
 &lt;font color="red"&gt; ※ 授業用Moodleに変更予定。もしくはセンターのMFA説明ページへ&lt;/font&gt;
@@ -4193,49 +4150,6 @@
     </rPh>
     <rPh sb="168" eb="170">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
- ※ 最近（たとえばこのテキストの第２章）で広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
-    <rPh sb="152" eb="154">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4640,31 +4554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
-&lt;strong&gt;※ 現在最新のmacOSの名前は Big Sur です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
-パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <rPh sb="193" eb="195">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>点検届の提出と、問い合わせ先紹介</t>
     <rPh sb="0" eb="3">
       <t>テンケントドケ</t>
@@ -4709,6 +4598,129 @@
     </rPh>
     <rPh sb="148" eb="150">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+&lt;strong&gt;※ 現在最新のmacOSの名前は Monterey です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
+パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <rPh sb="193" eb="195">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;※ 図のスクリーンイメージは現在のものと少し異なりますが、作業内容は下記のとおりです&lt;/font&gt;
+下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。
+※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。Chromeを既にインストールしている場合は、この章を飛ばして第４章に進んでください。
+</t>
+    <rPh sb="38" eb="39">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+ ※ このテキストの第２章などで広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5118,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5142,7 +5154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -5156,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5217,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5227,7 +5239,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5249,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5342,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,17 +5378,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5384,17 +5396,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5404,7 +5416,7 @@
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5478,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5492,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5516,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -5527,7 +5539,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -5541,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -5621,7 +5633,7 @@
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
@@ -5765,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5773,7 +5785,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6070,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -6090,8 +6102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6131,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6167,13 +6179,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6181,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -6265,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6282,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6306,43 +6318,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
         <v>301</v>
-      </c>
-      <c r="D9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
@@ -6372,7 +6384,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6472,7 +6484,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6512,15 +6524,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6571,7 +6583,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6587,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6666,29 +6678,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6696,12 +6708,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6715,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6743,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6790,7 +6802,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6798,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6814,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6822,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6833,7 +6845,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6841,7 +6853,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6849,7 +6861,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6857,13 +6869,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6871,18 +6883,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6890,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6901,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6912,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -6974,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7006,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7030,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7074,7 +7086,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7087,7 +7099,7 @@
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
         <v>174</v>
@@ -7323,7 +7335,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7401,7 +7413,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7425,7 +7437,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7433,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7486,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7538,7 +7550,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D15" t="s">
         <v>200</v>
@@ -7560,7 +7572,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7582,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7640,13 +7652,13 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7654,13 +7666,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7668,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7701,7 +7713,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7712,7 +7724,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7723,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7737,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7748,13 +7760,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7762,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7773,7 +7785,7 @@
     </row>
     <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,7 +7798,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -7814,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F468B8E-385E-403E-A3F3-34794C559F12}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1784F25B-E8EB-433C-9E4B-438046FAA767}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="18226" windowHeight="11873" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="-15555" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="331">
   <si>
     <t>header1</t>
   </si>
@@ -3093,35 +3093,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mfa-home1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Moodleの「コース一覧」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下は、ESETを既にインストールした方が対象です。別に購入したウィルス対策ソフトを使う場合は、そのマニュアルでパターンファイルの更新の設定手順とフルスキャンの方法を確認し、実施してください。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -3543,132 +3514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（ただしこの図は在学生向けの一例で、新入生に表示されるものとは異なります）
-新入生共通で表示されるものを簡単に説明すると：
-&lt;dl&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
-&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
-</t>
-    <rPh sb="98" eb="100">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="327" eb="329">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="345" eb="346">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="354" eb="355">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="413" eb="417">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="424" eb="426">
-      <t>セッシュ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="434" eb="435">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="444" eb="446">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="449" eb="450">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="451" eb="452">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="454" eb="457">
-      <t>コウセイイン</t>
-    </rPh>
-    <rPh sb="458" eb="459">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="471" eb="473">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="476" eb="481">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="486" eb="488">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="489" eb="492">
-      <t>ギムヅ</t>
-    </rPh>
-    <rPh sb="504" eb="506">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="512" eb="516">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="520" eb="522">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="523" eb="524">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="528" eb="530">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="531" eb="533">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3679,25 +3524,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「コース一覧」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4081,42 +3907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
-※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
-&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
-    <rPh sb="21" eb="23">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ms-download-home.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4128,28 +3918,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次のリンクから広島大学Moodleにアクセスしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-&lt;font color="red"&gt; ※ 授業用Moodleに変更予定。もしくはセンターのMFA説明ページへ&lt;/font&gt;
-</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="141" eb="144">
-      <t>ジュギョウヨウ</t>
-    </rPh>
-    <rPh sb="151" eb="155">
-      <t>ヘンコウヨテイ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4360,27 +4128,6 @@
     </rPh>
     <rPh sb="93" eb="95">
       <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広島大学Moodleにログインしてください。
-&lt;a href="https://moodle.huc.hiroshima-u.ac.jp/"&gt;https://moodle.huc.hiroshima-u.ac.jp/&lt;/a&gt;
-&lt;font color="red"&gt;※授業用MoodleのURLに変更予定&lt;/font&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="154" eb="158">
-      <t>ヘンコウヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4477,48 +4224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ ここまでの作業で、広島大学には２つのオンライン学習支援システム「Moodle」「Bb9」があることに気づかれたと思います。
-広島大学では今年度「Bb9」と「Moodle」の２つのオンライン学習支援システムを併用します。来年度からは「Moodle」に一本化する予定です。
-しばらく面倒をおかけしますが、ご了解ください。</t>
-    <rPh sb="7" eb="9">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="96" eb="100">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヘイヨウ</t>
-    </rPh>
-    <rPh sb="111" eb="114">
-      <t>ライネンド</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>イッポンカ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>メンドウ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>リョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習支援システムです。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 </t>
@@ -4721,6 +4426,310 @@
     </rPh>
     <rPh sb="215" eb="216">
       <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここまでの実習の中で、広島大学には２つのオンライン学習支援システム「Moodle」「Bb9」があることに気づかれたと思います。
+広島大学では今年度「Moodle」「Bb9」の２つのオンライン学習支援システムを併用します。来年度からは「Moodle」に一本化する予定です。
+しばらく面倒をおかけしますが、ご了解ください。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ライネンド</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をsafariブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
+※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-top.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
+真ん中に見える「コース概要」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（この図は在学生向けの一例で、新入生に表示されるものとは異なります）
+新入生向けに共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
+&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
+</t>
+    <rPh sb="56" eb="57">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="336" eb="337">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="401" eb="403">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="416" eb="420">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="457" eb="460">
+      <t>コウセイイン</t>
+    </rPh>
+    <rPh sb="461" eb="462">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="479" eb="484">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="492" eb="495">
+      <t>ギムヅ</t>
+    </rPh>
+    <rPh sb="507" eb="509">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="515" eb="519">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="523" eb="525">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="531" eb="533">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="534" eb="536">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
+    <rPh sb="11" eb="13">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「コース概要」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしてログインしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ヒロダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5168,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5188,8 +5197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5229,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5239,7 +5248,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5261,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5337,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5354,7 +5363,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,17 +5387,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5396,17 +5405,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,7 +5428,7 @@
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5482,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5490,7 +5502,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5504,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6143,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6179,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6277,7 +6289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6294,7 +6306,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6323,7 +6335,7 @@
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,23 +6350,23 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
@@ -6500,7 +6512,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6532,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6583,7 +6595,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6623,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6700,7 +6712,7 @@
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6727,7 +6739,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6755,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6785,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6802,7 +6814,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6845,7 +6857,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6853,15 +6865,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>325</v>
+      </c>
+      <c r="D9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6869,13 +6884,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6883,18 +6898,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6902,7 +6917,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6913,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6924,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -6986,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7010,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7042,7 +7057,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7086,7 +7101,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7099,7 +7114,7 @@
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
         <v>174</v>
@@ -7335,7 +7350,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7396,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7413,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,7 +7452,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7445,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7498,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7550,7 +7565,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
         <v>200</v>
@@ -7572,7 +7587,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7594,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7652,13 +7667,13 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7666,13 +7681,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7680,7 +7695,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7713,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7724,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7735,7 +7750,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7749,7 +7764,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7760,13 +7775,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7774,7 +7789,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7785,7 +7800,7 @@
     </row>
     <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,7 +7813,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -7826,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1784F25B-E8EB-433C-9E4B-438046FAA767}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0001ACD-BB61-4F6F-9EFE-6B74529AFD46}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="-15555" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="-15555" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="330">
   <si>
     <t>header1</t>
   </si>
@@ -210,14 +210,7 @@
     <t>win10-6-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
-  </t>
-  </si>
-  <si>
     <t>chart flame</t>
-  </si>
-  <si>
-    <t>win10-6-27.svg</t>
   </si>
   <si>
     <t>win10-6-07.svg</t>
@@ -273,15 +266,7 @@
     <t>おわりに</t>
   </si>
   <si>
-    <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1889,11 +1874,6 @@
     <t>ch5-hirodai-login-password.png</t>
   </si>
   <si>
-    <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-start0.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3288,14 +3268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-11&lt;/span&gt;
-スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここから先は補足情報であり、この実習で設定する必要はありません。後日必要に応じて行ってください。
  </t>
     <rPh sb="4" eb="5">
@@ -3350,16 +3322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;点検届の提出&lt;/h3&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac conclusion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3531,27 +3493,6 @@
     <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
 「Myもみじへログイン」をクリックしてください。
    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
-※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
-   </t>
-    <rPh sb="36" eb="38">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="53">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4049,26 +3990,6 @@
     </rPh>
     <rPh sb="108" eb="110">
       <t>キョウザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4151,18 +4072,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-※ （このテキストの第6章などで）広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
-</t>
-    <rPh sb="91" eb="93">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学外からのアクセスの場合は、ここで多要素認証（MFA）の手続きが入ります。</t>
     <rPh sb="0" eb="2">
       <t>ガクガイ</t>
@@ -4697,25 +4606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「コース概要」の中にある「ノートパソコン点検届」から、点検届を提出してください。</t>
-    <rPh sb="4" eb="6">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
 &lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
 「広大IDでログイン」をクリックしてログインしましょう。</t>
@@ -4730,6 +4620,170 @@
     </rPh>
     <rPh sb="164" eb="166">
       <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;点検届の提出&lt;/h2&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;問い合わせ&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;「コース概要」の中にある「ノートパソコン点検届」から、点検届を提出してください。&lt;/strong&gt;</t>
+    <rPh sb="12" eb="14">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Microsoft 365 ポータル」のバナーをクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+※ （このテキストの第6章などで）広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面[8]に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
+</t>
+    <rPh sb="91" eb="93">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365で使えるアプリのバナーが画面左側に並んでいます。「Outlook」をクリック。 
+  </t>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o365-outlook.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
+大学からの電子メールでの連絡は、広大メールで来ます。
+常にメールチェックするようにしてください。&lt;span class="check"&gt;check-11&lt;/span&gt;
+ここではWeb版を紹介しましたが、スマホのOutlookアプリでも複雑な設定の必要なくメールの送受信が可能です。使いやすくて新規メールが届いた時の通知もありますのでおすすめです。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <rPh sb="107" eb="109">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
+※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
+※ この画面をスキップして次の画面[14]になることがあります。これは「シングルサインオン」といって何度も同じログインをしなくて済むようにしているものなので、そのまま作業を続けて大丈夫です。
+   </t>
+    <rPh sb="36" eb="38">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+&lt;strong&gt;※ 学外にいる場合はこの方法での「Bb9」へのログインはできません。項目[21]まで飛んでください。&lt;/strong&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5139,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5163,7 +5217,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -5177,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5238,17 +5292,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5256,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5270,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5326,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5346,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5360,10 +5414,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,17 +5441,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5405,30 +5459,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5478,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5494,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5502,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5516,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5526,13 +5580,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5540,24 +5594,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,13 +5619,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,40 +5633,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5620,13 +5674,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5634,24 +5688,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5659,13 +5713,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5673,35 +5727,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5709,13 +5763,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5723,18 +5777,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5765,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5797,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5817,7 +5871,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5825,13 +5879,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5839,24 +5893,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5864,13 +5918,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5878,13 +5932,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5898,18 +5952,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5917,13 +5971,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5937,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5951,7 +6005,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5959,134 +6013,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6094,13 +6148,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6155,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6163,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6177,13 +6231,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6191,13 +6245,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6205,13 +6259,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6219,13 +6273,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6233,24 +6287,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6258,24 +6312,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6306,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6314,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,54 +6384,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6385,18 +6439,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6512,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6544,7 +6598,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6555,18 +6609,18 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6574,13 +6628,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +6665,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6619,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6643,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6662,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6676,7 +6730,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -6690,34 +6744,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6725,7 +6779,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6739,7 +6793,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6753,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6767,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6814,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6838,7 +6892,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6846,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6857,7 +6911,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6865,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6873,10 +6927,10 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6884,13 +6938,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6898,18 +6952,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6917,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6928,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6939,7 +6993,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -7001,7 +7055,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7025,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7033,7 +7087,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7044,12 +7098,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -7057,13 +7111,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7071,18 +7125,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7090,58 +7144,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7149,13 +7203,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7169,7 +7223,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7177,13 +7231,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>184</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7191,13 +7245,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7205,13 +7259,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7219,18 +7273,18 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7238,7 +7292,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7252,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7266,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7280,7 +7334,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7294,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7308,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7322,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7336,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7350,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7364,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -7378,13 +7432,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7392,7 +7446,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -7411,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7428,7 +7482,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7452,7 +7506,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7460,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7513,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,21 +7608,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7576,18 +7630,18 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7595,13 +7649,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7609,13 +7663,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7623,13 +7677,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7637,18 +7691,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7667,27 +7721,27 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7695,18 +7749,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7728,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7739,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7750,13 +7804,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7764,24 +7818,24 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7789,23 +7843,23 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7813,7 +7867,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -7827,13 +7881,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -7841,13 +7895,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7855,13 +7909,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0001ACD-BB61-4F6F-9EFE-6B74529AFD46}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="-15555" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6649,7 +6649,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6852,7 +6852,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7038,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7465,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0001ACD-BB61-4F6F-9EFE-6B74529AFD46}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E678D6AF-9EF0-4134-B59A-09F5B96FDFFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2228" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3063,16 +3063,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Moodleへのログインと多要素認証（MFA）の設定</t>
-    <rPh sb="13" eb="18">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下は、ESETを既にインストールした方が対象です。別に購入したウィルス対策ソフトを使う場合は、そのマニュアルでパターンファイルの更新の設定手順とフルスキャンの方法を確認し、実施してください。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -3142,34 +3132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="38" eb="43">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下の方にある「広大IDのMFA設定」の説明に従って広大IDの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
     <rPh sb="0" eb="1">
       <t>シタ</t>
@@ -3480,16 +3442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
-    <rPh sb="38" eb="40">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
 「Myもみじへログイン」をクリックしてください。
    </t>
@@ -3739,34 +3691,6 @@
   </si>
   <si>
     <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
-    <rPh sb="0" eb="4">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="43" eb="48">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4200,22 +4124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムのMoodleにログインしてみましょう。
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;Moodleにログインする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="137" eb="142">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
 「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
 &lt;strong&gt;※ 現在最新のmacOSの名前は Monterey です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
@@ -4339,51 +4247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ ここまでの実習の中で、広島大学には２つのオンライン学習支援システム「Moodle」「Bb9」があることに気づかれたと思います。
-広島大学では今年度「Moodle」「Bb9」の２つのオンライン学習支援システムを併用します。来年度からは「Moodle」に一本化する予定です。
-しばらく面倒をおかけしますが、ご了解ください。</t>
-    <rPh sb="7" eb="9">
-      <t>ジッシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="97" eb="101">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヘイヨウ</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>ライネンド</t>
-    </rPh>
-    <rPh sb="127" eb="130">
-      <t>イッポンカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>メンドウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>リョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をsafariブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
 ※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
 &lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
@@ -4421,24 +4284,6 @@
   </si>
   <si>
     <t>moodle-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-「広大IDでログイン」をクリックしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ヒロダイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4581,31 +4426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
-    <rPh sb="11" eb="13">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
 &lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
 「広大IDでログイン」をクリックしてログインしましょう。</t>
@@ -4784,6 +4604,216 @@
     </rPh>
     <rPh sb="122" eb="123">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学のオンライン学習支援システム（広大moodle）にログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="47" eb="52">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodleへのログインと多要素認証（MFA）の設定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムの広大moodleにログインしてみましょう。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;広大moodleにログインする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="46" eb="48">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="141" eb="146">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;広大moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
+    <rPh sb="25" eb="27">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学オンライン学習支援システム（広大moodle）にアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="41" eb="46">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここまでの実習の中で、広島大学には２つのオンライン学習支援システム「広大moodle」「Bb9」があることに気づかれたと思います。
+広島大学では今年度「広大moodle」「Bb9」の２つのオンライン学習支援システムを併用します。来年度からは「広大moodle」に一本化する予定です。
+しばらく面倒をおかけしますが、ご了解ください。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="101" eb="105">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ライネンド</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>リョウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5231,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5292,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5302,7 +5332,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5324,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5417,7 +5447,7 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,17 +5471,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5459,30 +5489,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5548,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5556,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5570,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6209,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6245,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6360,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,7 +6419,7 @@
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,23 +6434,23 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>192</v>
@@ -6566,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6689,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6766,7 +6796,7 @@
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6793,7 +6823,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6821,7 +6851,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6852,7 +6882,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6868,7 +6898,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6876,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6911,7 +6941,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6919,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6927,10 +6957,10 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6938,13 +6968,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6952,18 +6982,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6971,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6982,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6993,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -7055,7 +7085,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7111,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7155,7 +7185,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7168,7 +7198,7 @@
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
         <v>170</v>
@@ -7404,7 +7434,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7465,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7482,7 +7512,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7514,7 +7544,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7567,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7608,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7619,7 +7649,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
@@ -7641,7 +7671,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7649,13 +7679,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7663,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7721,13 +7751,13 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7735,13 +7765,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7749,7 +7779,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7782,7 +7812,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7793,7 +7823,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7804,7 +7834,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7818,7 +7848,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7829,13 +7859,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7843,7 +7873,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7854,7 +7884,7 @@
     </row>
     <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,7 +7897,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -7895,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E678D6AF-9EF0-4134-B59A-09F5B96FDFFB}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BB2161-75CC-473A-800C-A0FFFFF394BF}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2228" windowWidth="16215" windowHeight="13590" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="-14760" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
   <si>
     <t>header1</t>
   </si>
@@ -3223,13 +3223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-13&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここから先は補足情報であり、この実習で設定する必要はありません。後日必要に応じて行ってください。
  </t>
     <rPh sb="4" eb="5">
@@ -3326,15 +3319,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>アンナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一番最初にBb9に入ったときだけ、この画面が開きます。
-「閉じる」をクリックしてください。
-  </t>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4814,6 +4798,98 @@
     </rPh>
     <rPh sb="160" eb="162">
       <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このような画面になります。&lt;span class="check"&gt;check-13&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初めてBb9に入ったときだけ、この画面が開きます。
+「閉じる」をクリックしてください。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めてMyもみじにログインするときだけ、この画面が出ます。画面の説明をよく読んで、「同意する」「同意しない」のどちらかを選んで「次へ」をクリックしてください。
+※ 図中でも説明していますが、どちらを選んでも後で変更はできます。また、どちらを選んでもMyもみじは使えます。
+さらに詳しいことは部局ガイダンスでの説明やFAQを見てください。</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ズチュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ブキョク</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5261,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5322,7 +5398,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5332,7 +5408,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5354,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5447,7 +5523,7 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,17 +5547,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5489,30 +5565,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5586,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5600,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5881,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6239,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6275,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6390,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,7 +6495,7 @@
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6434,23 +6510,23 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
         <v>192</v>
@@ -6596,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,7 +6704,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6719,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6809,7 +6885,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6898,7 +6974,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6930,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6941,7 +7017,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6949,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6957,10 +7033,10 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -6968,13 +7044,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6982,18 +7058,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7001,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -7012,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7085,7 +7161,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7141,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7493,10 +7569,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7512,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7536,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7544,7 +7620,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7597,7 +7673,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7638,7 +7714,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7649,7 +7725,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
@@ -7671,7 +7747,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7679,13 +7755,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7693,7 +7769,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7751,13 +7827,13 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7765,186 +7841,194 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>67</v>
       </c>
     </row>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BB2161-75CC-473A-800C-A0FFFFF394BF}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E1C0A6-8E46-442A-A03C-8249640C14CA}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="-14760" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13245" yWindow="-14655" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4827,7 +4827,7 @@
   <si>
     <t>初めてMyもみじにログインするときだけ、この画面が出ます。画面の説明をよく読んで、「同意する」「同意しない」のどちらかを選んで「次へ」をクリックしてください。
 ※ 図中でも説明していますが、どちらを選んでも後で変更はできます。また、どちらを選んでもMyもみじは使えます。
-さらに詳しいことは部局ガイダンスでの説明やFAQを見てください。</t>
+さらに詳しいことは画面中にあるFAQへのリンクを参照してください。</t>
     <rPh sb="0" eb="1">
       <t>ハジ</t>
     </rPh>
@@ -4882,14 +4882,11 @@
     <rPh sb="139" eb="140">
       <t>クワ</t>
     </rPh>
-    <rPh sb="145" eb="147">
-      <t>ブキョク</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>ミ</t>
+    <rPh sb="145" eb="148">
+      <t>ガメンチュウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7572,7 +7569,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E1C0A6-8E46-442A-A03C-8249640C14CA}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFCA3E0-FDD7-4672-BB7C-B18F2EC6D67D}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="-14655" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="-14895" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4556,42 +4556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-&lt;strong&gt;※ 学外にいる場合はこの方法での「Bb9」へのログインはできません。項目[21]まで飛んでください。&lt;/strong&gt;
-</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広島大学のオンライン学習支援システム（広大moodle）にログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
     <rPh sb="0" eb="4">
       <t>ヒロシマダイガク</t>
@@ -4887,6 +4851,42 @@
     </rPh>
     <rPh sb="160" eb="162">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+&lt;strong&gt;※ 学外にいる場合はこの方法での「Bb9」へのログインはできません。項目[22]まで飛んでください。&lt;/strong&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6971,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7030,7 +7030,7 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
         <v>306</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -7085,7 +7085,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7568,8 +7568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7860,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7915,7 +7915,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7940,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFCA3E0-FDD7-4672-BB7C-B18F2EC6D67D}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54CC814-93B9-448C-BB53-BE7C06E1D493}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="-14895" windowWidth="17205" windowHeight="14160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="18225" windowHeight="11872" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2966,19 +2966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学必携PC初期実習（自習用テキスト）</t>
-    <rPh sb="10" eb="12">
-      <t>ジッシュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4887,6 +4874,16 @@
     </rPh>
     <rPh sb="122" eb="123">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学 2022年度 必携PC初期実習テキスト</t>
+    <rPh sb="9" eb="11">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5279,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5296,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5395,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5405,7 +5402,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5427,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5520,7 +5517,7 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,17 +5541,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5562,30 +5559,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5651,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5659,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5673,7 +5670,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5954,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6312,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6348,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6362,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -6463,7 +6460,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,43 +6484,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>192</v>
@@ -6669,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6693,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6701,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6792,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6869,7 +6866,7 @@
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6896,7 +6893,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6924,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6971,7 +6968,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7014,7 +7011,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7022,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -7030,10 +7027,10 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -7041,13 +7038,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -7055,18 +7052,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7074,7 +7071,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -7085,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7096,7 +7093,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -7158,7 +7155,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7214,7 +7211,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7271,7 +7268,7 @@
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
         <v>170</v>
@@ -7507,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7568,7 +7565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -7585,7 +7582,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7609,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -7617,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7670,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7711,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7722,7 +7719,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
@@ -7744,7 +7741,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7752,13 +7749,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7766,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7824,13 +7821,13 @@
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7838,21 +7835,21 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7860,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7893,7 +7890,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7904,7 +7901,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7915,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7929,7 +7926,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7940,13 +7937,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7954,7 +7951,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -7965,7 +7962,7 @@
     </row>
     <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,7 +7975,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -8006,7 +8003,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54CC814-93B9-448C-BB53-BE7C06E1D493}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CB3801F-4AB2-406F-A3ED-02D0B466A693}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="18225" windowHeight="11872" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3907,47 +3907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。
-&lt;strong&gt;Moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
 これらのサービスを利用するにはWebブラウザを使います。
 macOSではSafariというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
@@ -4397,24 +4356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-「広大IDでログイン」をクリックしてログインしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h2&gt;点検届の提出&lt;/h2&gt;</t>
     <rPh sb="4" eb="7">
       <t>テンケントドケ</t>
@@ -4426,25 +4367,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;問い合わせ&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;「コース概要」の中にある「ノートパソコン点検届」から、点検届を提出してください。&lt;/strong&gt;</t>
-    <rPh sb="12" eb="14">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>テイシュツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4884,6 +4806,78 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。
+&lt;strong&gt;広大moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広大moodleにアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしてログインしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;「コースツリー」の中にある「ノートパソコン点検届」から、点検届を提出してください。&lt;/strong&gt;</t>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5276,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5293,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5500,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5546,12 +5540,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5559,25 +5553,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
@@ -6345,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -6504,7 +6498,7 @@
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>281</v>
@@ -6520,7 +6514,7 @@
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
         <v>192</v>
@@ -6698,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6879,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6951,8 +6945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6968,7 +6962,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7000,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7011,7 +7005,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7019,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -7027,10 +7021,10 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -7038,7 +7032,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -7052,18 +7046,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7071,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -7082,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7566,7 +7560,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7614,7 +7608,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7708,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7719,7 +7713,7 @@
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
@@ -7741,7 +7735,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7749,13 +7743,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7763,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7835,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -7846,10 +7840,10 @@
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7857,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7890,7 +7884,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7901,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7912,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7937,7 +7931,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7962,7 +7956,7 @@
     </row>
     <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CB3801F-4AB2-406F-A3ED-02D0B466A693}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD18D93C-48C5-4729-AFB7-7A8BE992B448}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1140" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="345">
   <si>
     <t>header1</t>
   </si>
@@ -188,40 +188,10 @@
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
-GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
-  </t>
-  </si>
-  <si>
     <t>win10-6-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もみじ」で「Webメール」のバナーをクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-03.svg</t>
-  </si>
-  <si>
-    <t>chart flame</t>
-  </si>
-  <si>
-    <t>win10-6-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
-するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
-  </t>
-  </si>
-  <si>
-    <t>win10-6-08.svg</t>
   </si>
   <si>
     <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
@@ -230,22 +200,13 @@
   </t>
   </si>
   <si>
-    <t>win10-6-09.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
   </si>
   <si>
-    <t>win10-6-11.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
   </si>
   <si>
     <t>win10-6-16.svg</t>
-  </si>
-  <si>
-    <t>win10-6-17.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
@@ -1862,16 +1823,7 @@
   </si>
   <si>
     <t>office365-portal.png</t>
-  </si>
-  <si>
-    <t>office365-portal.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-hirodai-login.png</t>
-  </si>
-  <si>
-    <t>ch5-hirodai-login-password.png</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ch7-teams-start0.png</t>
@@ -2842,10 +2794,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Mac chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>macos-about-catalina.png</t>
   </si>
   <si>
@@ -3119,40 +3067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下の方にある「広大IDのMFA設定」の説明に従って広大IDの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="30" eb="35">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Mac chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3658,10 +3572,6 @@
     <rPh sb="337" eb="339">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン履修登録などをおこなう「もみじ」、電子メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにします。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3811,81 +3721,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>momiji-home0.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>momiji-home1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9の「大学教育入門」コースのトップページが表示されます。ここで「大学教育入門」の教材の閲覧およびダウンロードや、課題の提出などができます。
-「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。
-&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
-</t>
-    <rPh sb="5" eb="7">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>キョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="40">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-13.svg</t>
-  </si>
-  <si>
-    <t>もみじTOPページのバナーからBb9に入ったら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
-    <rPh sb="19" eb="20">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>キョウザイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3907,7 +3743,1048 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
+    <t>今度は広島大学のオンライン学習支援システム「Bb9」を使ってみましょう。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。</t>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要なIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第７章で紹介しています。
+  </t>
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点検届の提出と、問い合わせ先紹介</t>
+    <rPh sb="0" eb="3">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;多要素認証(MFA)の設定&lt;/h2&gt; </t>
+    <rPh sb="22" eb="27">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+&lt;strong&gt;※ 現在最新のmacOSの名前は Monterey です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
+パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <rPh sb="193" eb="195">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;※ 図のスクリーンイメージは現在のものと少し異なりますが、作業内容は下記のとおりです&lt;/font&gt;
+下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。
+※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。Chromeを既にインストールしている場合は、この章を飛ばして第４章に進んでください。
+</t>
+    <rPh sb="38" eb="39">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+ ※ このテキストの第２章などで広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をsafariブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
+※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;点検届の提出&lt;/h2&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;問い合わせ&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o365-outlook.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
+※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
+※ この画面をスキップして次の画面[14]になることがあります。これは「シングルサインオン」といって何度も同じログインをしなくて済むようにしているものなので、そのまま作業を続けて大丈夫です。
+   </t>
+    <rPh sb="36" eb="38">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めてMyもみじにログインするときだけ、この画面が出ます。画面の説明をよく読んで、「同意する」「同意しない」のどちらかを選んで「次へ」をクリックしてください。
+※ 図中でも説明していますが、どちらを選んでも後で変更はできます。また、どちらを選んでもMyもみじは使えます。
+さらに詳しいことは画面中にあるFAQへのリンクを参照してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ズチュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ガメンチュウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学 2022年度 必携PC初期実習テキスト</t>
+    <rPh sb="9" eb="11">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。
+&lt;strong&gt;広大moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;「コースツリー」の中にある「ノートパソコン点検届」から、点検届を提出してください。&lt;/strong&gt;</t>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>テンケントドケ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学の学生用ポータルサイト「もみじ」からオンライン学習支援システム「広大moodle」にログインして、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガクセイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もみじトップページ、広大moodleと多要素認証（MFA）の設定 </t>
+    <rPh sb="10" eb="12">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学の学生用ポータルサイト「もみじ」を確認してから、オンライン学習支援システムの広大moodleにログインして広島大学で必要な多要素認証（MFA）の設定をしましょう。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#momiji"&gt;もみじ（広大学生用ポータルサイト）&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;広大moodleにログインする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガクセイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ガクセイヨウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="209" eb="214">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>この章からはネットワーク環境と、学生番号・広大パスワードが必要です。大学から学生番号をもらってから、作業を進めてください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ガクセイバンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
+GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
+※ 次のリンクから直接「もみじ」にアクセスすることもできます。
+&lt;a href="https://momiji.hiroshima-u.ac.jp/momiji-top/index.shtml" target="_blank" rel="noreferrer"&gt;https://momiji.hiroshima-u.ac.jp/momiji-top/index.shtml&lt;/a&gt;
+  </t>
+    <rPh sb="133" eb="134">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」はこのような画面です。右側にある「トピックス」の下に各種情報システムにアクセスできるバナーが並んでいます。下にスクロールして確認してみてください。
+※ このページをWebブラウザの「お気に入り」に入れるとあとで便利です。（方法は自身でお調べください）
+  </t>
+    <rPh sb="16" eb="18">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;広大moodleにログインする&lt;/h2&gt; </t>
+    <rPh sb="25" eb="27">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右側にある「Bb9/moodle」のバナーをクリックして、広島大学オンライン学習支援システムのページに進みます。
+  </t>
+    <rPh sb="29" eb="33">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-bb9moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右側にある「HIRODAI moodle」のバナーをクリックして、広大moodleのログインページに進みます。 
+※次のリンクから直接広大moodleにアクセスすることもできます。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <rPh sb="33" eb="35">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lms-moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「広大IDでログイン」をクリックしましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインしたら、この画面（ダッシュボード）が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
+真ん中に見える「コースツリー」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（この図は在学生向けの一例で、新入生に表示されるものとは異なります）
+新入生向けに共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;MFA設定ガイド&lt;/dt&gt;
+&lt;dd&gt;広島大学ではパスワード窃取によるアカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
+</t>
+    <rPh sb="65" eb="66">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="184" eb="187">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="367" eb="368">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="420" eb="424">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="431" eb="433">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="441" eb="442">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="453" eb="455">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="460" eb="461">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="463" eb="466">
+      <t>コウセイイン</t>
+    </rPh>
+    <rPh sb="467" eb="468">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="480" eb="482">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="485" eb="490">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="495" eb="497">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="498" eb="501">
+      <t>ギムヅ</t>
+    </rPh>
+    <rPh sb="513" eb="515">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="521" eb="525">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="529" eb="531">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="532" eb="533">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="537" eb="539">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="540" eb="542">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-dashboard-ja.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodleの「コースツリー」の中の「MFA設定ガイド」をクリックすると、コースのトップページが表示されます。まず「コメントシート」欄に表示される説明を読んでください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-top.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに下の方にある「IMCアカウントのMFA設定」をクリックしてIMCアカウントのMFA設定教材を表示しましょう。</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-imc.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教材の下の方にある「IMCアカウントのMFA利用設定実習」をクリックして、説明に従ってIMCアカウントの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="52" eb="57">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfaimc-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに下の方にある「広大IDのMFA設定」をクリックして広大IDのMFA設定教材を表示しましょう。</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-hirodai.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教材の下の方にある「広大IDのMFA利用設定実習」をクリックして、説明に従って広大IDの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-10&lt;/span&gt;
+※ 学外から設定する場合は第６章に説明のある「VPN」を使います。もしVPNの使用が難しい場合は、残りの設定はあとで学内ネットワークに接続してから行いましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="44" eb="49">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfahirodai-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「Myもみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるようにしましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;この章の内容は、学生番号とそれに付属しているパスワードが必要です。この2つを入手してから実施してください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;
+広大メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「Myもみじ」、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
 これらのサービスを利用するにはWebブラウザを使います。
 macOSではSafariというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
@@ -3926,36 +4803,206 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学外からのアクセスの場合は、ここで多要素認証（MFA）の手続きが入ります。</t>
-    <rPh sb="0" eb="2">
+    <t xml:space="preserve">前の章でも使った「もみじトップページ」の右側に並んでいるバナーのうち、まず「Webメール」について説明します。次に、履修登録などを行う「Myもみじ」について、最後に「Bb9」について説明します。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もみじトップページの右側にある「Webメール」バナーをクリックしましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-webmail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディアセンタのMicrosoft 365ポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;にジャンプします。水色の「Microsoft365ポータル」を押すと&lt;a href="https://portal.office.com/" target="_blank" rel="noreferrer"&gt;https://portal.office.com/&lt;/a&gt;に移動します。</t>
+    <rPh sb="205" eb="207">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="331" eb="333">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-imc-office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMCアカウントを「@hiroshima-u.ac.jp」つきで入力し、さらにパスワードも入力します。このサイトはMicrosoftのサイトなので、「@hiroshima-u.ac.jp」がついていないと貴方の学生番号がどの大学のものか判らないため、「@hiroshima-u.ac.jp」を加える必要があります。
+※学外からログインする場合は、ここで多要素認証の手続きが入ります。</t>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
       <t>ガクガイ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="169" eb="171">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="17" eb="22">
+    <rPh sb="176" eb="181">
       <t>タヨウソニンショウ</t>
     </rPh>
+    <rPh sb="182" eb="184">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-ms-signin2.png</t>
+  </si>
+  <si>
+    <t>Edgeがパスワードを保存するかどうか確認してきますが、初期パスワードは近いうちに変更するので、ここでは「なし」にしましょう。サインインの状態は保持しても構いません。</t>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
     <rPh sb="28" eb="30">
-      <t>テツヅ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今度は広島大学のオンライン学習支援システム「Bb9」を使ってみましょう。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。</t>
-    <rPh sb="27" eb="28">
-      <t>ツカ</t>
-    </rPh>
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-ms-signin3.png</t>
+  </si>
+  <si>
+    <t>Office365のページの左側にブラウザ内で使用できるアプリのアイコンが並びます。「O」の文字があるOutlookをクリックします。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outlook for Webのページが開き、新着メールを確認することができます。大学からのメール連絡は広大メールに来ますので、常にメールチェックするようにしてください。</t>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-outlook-for-web.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
+するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-office365-from-outlook-to-onedrive.png</t>
+  </si>
+  <si>
+    <t>win11ja-onedrive-in-browser.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-13&lt;/span&gt;
+これを「Myもみじのトップページ」と呼ぶことにしましょう。
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+このまま引き続いて、次の「Bb9」の使い方に進みましょう。
+  </t>
+    <rPh sb="70" eb="71">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-11a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">Myもみじのトップページに表示されている時間割の中に「大学教育入門」のリンクがあるはずです。
-これをクリックするとBb9の「大学教育入門」コースに直接アクセスできます。
-&lt;font color="red"&gt;※ 申し訳ないのですが、まだイメージ画面ができていません&lt;/font&gt;
+これをクリックして「大学教育入門」の詳細画面に移動します。
   </t>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
@@ -3969,915 +5016,192 @@
     <rPh sb="27" eb="33">
       <t>ダイガクキョウイクニュウモン</t>
     </rPh>
-    <rPh sb="62" eb="68">
+    <rPh sb="57" eb="63">
       <t>ダイガクキョウイクニュウモン</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="65" eb="69">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-topintro.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「大学教育入門」の詳細画面の中に「Bb9へ」というリンクがあるはずです。
+これをクリックするとBb9の「大学教育入門」コースに直接アクセスできます。
+  </t>
+    <rPh sb="1" eb="7">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="52" eb="58">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="105" eb="106">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ワケ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-intro.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にBb9に入ったときだけ、この画面が開きます。
+「閉じる」をクリックしてください。
+  </t>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9の「大学教育入門」コースのトップページが表示されます。ここで「大学教育入門」の教材の閲覧およびダウンロードや、課題の提出などができます。
+「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。
+&lt;font color="red"&gt;※ 画面イメージ未撮影&lt;/font&gt;
+</t>
+    <rPh sb="5" eb="7">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="40">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習支援システムです。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-</t>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シエン</t>
+    <rPh sb="200" eb="203">
+      <t>ミサツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+各システムの閲覧が済んだら、できるだけ「サインアウト」「ログアウト」するようにしましょう。多くの場合、画面右上にあるアイコンからログアウトできます。
+※ 図は「Myもみじ」でのログアウト方法の例
+  </t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-12.svg</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;※ ここまでの実習の中で、広島大学には２つのオンライン学習支援システム「広大moodle」「Bb9」があることに気づかれたと思います。
+広島大学では今年度「広大moodle」「Bb9」の２つのオンライン学習支援システムを併用します。来年度からは「広大moodle」に一本化する予定です。
+しばらく面倒をおかけしますが、ご了解ください。&lt;/strong&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="109" eb="113">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>ライネンド</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="141" eb="144">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もみじトップページの「Bb9/moodle」バナー、または次のリンクから広島大学オンライン学習支援システム（広大moodle）にアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしてログインしましょう。</t>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>ガクシュウシエン</t>
     </rPh>
     <rPh sb="54" eb="56">
       <t>ヒロダイ</t>
     </rPh>
-    <rPh sb="65" eb="67">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要なIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第７章で紹介しています。
-  </t>
-    <rPh sb="335" eb="336">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="337" eb="338">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>点検届の提出と、問い合わせ先紹介</t>
-    <rPh sb="0" eb="3">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;多要素認証(MFA)の設定&lt;/h2&gt; </t>
-    <rPh sb="22" eb="27">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
-&lt;strong&gt;※ 現在最新のmacOSの名前は Monterey です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
-パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <rPh sb="193" eb="195">
-      <t>ゲンザイ</t>
-    </rPh>
     <rPh sb="195" eb="197">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;font color="red"&gt;※ 図のスクリーンイメージは現在のものと少し異なりますが、作業内容は下記のとおりです&lt;/font&gt;
-下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。
-※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="20" eb="21">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ここでは、Google Chromeのインストールを行います。Chromeを既にインストールしている場合は、この章を飛ばして第４章に進んでください。
-</t>
-    <rPh sb="38" eb="39">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
- ※ このテキストの第２章などで広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
-    <rPh sb="146" eb="148">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のサイト「ダウンロード（マイクロソフト包括ライセンス）」をsafariブラウザで開いて、その中の「WindowsOS, ウィルス対策ソフト(ESET)」「学生の個人所有PC用のダウンロードはこちらから」のリンクをクリックしてください。
-※ ESET はマイクロソフト製品ではありませんが、大学で提供するソフトウェアとしてまとめてサービスしています
-&lt;a href="https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/"&gt;https://www.media.hiroshima-u.ac.jp/services/ms-ees/ms-download/&lt;/a&gt;</t>
-    <rPh sb="21" eb="23">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moodle-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moodle-top.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
-真ん中に見える「コース概要」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（この図は在学生向けの一例で、新入生に表示されるものとは異なります）
-新入生向けに共通で表示されるものを簡単に説明すると：
-&lt;dl&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
-&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
-</t>
-    <rPh sb="56" eb="57">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="333" eb="335">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="336" eb="337">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="348" eb="349">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="357" eb="358">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="401" eb="403">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="416" eb="420">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="427" eb="429">
-      <t>セッシュ</t>
-    </rPh>
-    <rPh sb="435" eb="436">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="437" eb="438">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="447" eb="449">
       <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="452" eb="453">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="457" eb="460">
-      <t>コウセイイン</t>
-    </rPh>
-    <rPh sb="461" eb="462">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="479" eb="484">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="489" eb="491">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="492" eb="495">
-      <t>ギムヅ</t>
-    </rPh>
-    <rPh sb="507" eb="509">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="515" eb="519">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="523" eb="525">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="526" eb="527">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="531" eb="533">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="534" eb="536">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;点検届の提出&lt;/h2&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;問い合わせ&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「Microsoft 365 ポータル」のバナーをクリックしてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-※ （このテキストの第6章などで）広大メールアドレスとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずにOffice365のホーム画面[8]に直接進むことがあります。これは何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。
-</t>
-    <rPh sb="91" eb="93">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365で使えるアプリのバナーが画面左側に並んでいます。「Outlook」をクリック。 
-  </t>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o365-outlook.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-11&lt;/span&gt;
-ここではWeb版を紹介しましたが、スマホのOutlookアプリでも複雑な設定の必要なくメールの送受信が可能です。使いやすくて新規メールが届いた時の通知もありますのでおすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-    <rPh sb="107" eb="109">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広大ID（学生番号）、広大パスワードを入力してログインしましょう。
-※ 学外からの場合は、さらに多要素認証（MFA）のコード入力も必要です。
-※ この画面をスキップして次の画面[14]になることがあります。これは「シングルサインオン」といって何度も同じログインをしなくて済むようにしているものなので、そのまま作業を続けて大丈夫です。
-   </t>
-    <rPh sb="36" eb="38">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="53">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="160" eb="163">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学のオンライン学習支援システム（広大moodle）にログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
-    <rPh sb="0" eb="4">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="47" eb="52">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広大moodleへのログインと多要素認証（MFA）の設定</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="15" eb="20">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムの広大moodleにログインしてみましょう。
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;広大moodleにログインする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="46" eb="48">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="141" eb="146">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;広大moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
-    <rPh sb="25" eb="27">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広島大学オンライン学習支援システム（広大moodle）にアクセスしてください。
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-「広大IDでログイン」をクリックしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広大moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さらに下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <rPh sb="3" eb="4">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="41" eb="46">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ ここまでの実習の中で、広島大学には２つのオンライン学習支援システム「広大moodle」「Bb9」があることに気づかれたと思います。
-広島大学では今年度「広大moodle」「Bb9」の２つのオンライン学習支援システムを併用します。来年度からは「広大moodle」に一本化する予定です。
-しばらく面倒をおかけしますが、ご了解ください。</t>
-    <rPh sb="7" eb="9">
-      <t>ジッシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="101" eb="105">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヘイヨウ</t>
-    </rPh>
-    <rPh sb="116" eb="119">
-      <t>ライネンド</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="133" eb="136">
-      <t>イッポンカ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>メンドウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>リョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">このような画面になります。&lt;span class="check"&gt;check-13&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mymomiji-1stlogin.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">初めてBb9に入ったときだけ、この画面が開きます。
-「閉じる」をクリックしてください。
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初めてMyもみじにログインするときだけ、この画面が出ます。画面の説明をよく読んで、「同意する」「同意しない」のどちらかを選んで「次へ」をクリックしてください。
-※ 図中でも説明していますが、どちらを選んでも後で変更はできます。また、どちらを選んでもMyもみじは使えます。
-さらに詳しいことは画面中にあるFAQへのリンクを参照してください。</t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ズチュウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="145" eb="148">
-      <t>ガメンチュウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">自分の履修科目についての「Bb9」のコース全体を見ることもできます。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-&lt;strong&gt;※ 学外にいる場合はこの方法での「Bb9」へのログインはできません。項目[22]まで飛んでください。&lt;/strong&gt;
-</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学 2022年度 必携PC初期実習テキスト</t>
-    <rPh sb="9" eb="11">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。
-&lt;strong&gt;広大moodleの「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広大moodleにアクセスしてください。
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-「広大IDでログイン」をクリックしてログインしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;「コースツリー」の中にある「ノートパソコン点検届」から、点検届を提出してください。&lt;/strong&gt;</t>
-    <rPh sb="17" eb="18">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>テンケントドケ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4886,7 +5210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4899,6 +5223,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4922,12 +5252,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5287,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5303,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5311,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -5325,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5346,7 +5679,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5386,17 +5719,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5404,7 +5737,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5418,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -5474,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5494,8 +5827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5508,10 +5841,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,17 +5868,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5553,30 +5886,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5618,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -5650,7 +5983,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5664,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5674,13 +6007,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5688,24 +6021,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5713,13 +6046,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,40 +6060,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5768,13 +6101,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5782,24 +6115,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -5807,13 +6140,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5821,35 +6154,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5857,13 +6190,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -5871,18 +6204,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5897,7 +6230,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5913,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -5945,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5965,7 +6298,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -5973,13 +6306,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -5987,24 +6320,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6012,13 +6345,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6026,13 +6359,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6046,18 +6379,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6065,13 +6398,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -6085,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6099,7 +6432,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -6107,134 +6440,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6242,13 +6575,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6303,7 +6636,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6311,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6325,13 +6658,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6339,13 +6672,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6353,13 +6686,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6367,13 +6700,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6381,24 +6714,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6406,24 +6739,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6787,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6462,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6478,54 +6811,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -6533,18 +6866,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6660,7 +6993,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6692,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6703,18 +7036,18 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -6722,13 +7055,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6743,7 +7076,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6759,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -6791,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6810,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6824,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -6838,34 +7171,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -6873,7 +7206,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6887,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6901,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6915,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6943,10 +7276,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6962,7 +7295,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6986,15 +7319,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7005,59 +7338,47 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7065,59 +7386,147 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7132,8 +7541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7149,7 +7558,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7173,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -7181,7 +7590,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7192,12 +7601,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -7205,13 +7614,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7219,18 +7628,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7238,58 +7647,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7297,13 +7706,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -7317,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -7325,13 +7734,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -7339,13 +7748,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7353,13 +7762,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7367,18 +7776,18 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -7386,7 +7795,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -7400,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7414,7 +7823,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7428,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7442,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7456,7 +7865,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7470,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7484,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7498,7 +7907,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7512,7 +7921,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -7526,13 +7935,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,7 +7949,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -7557,10 +7966,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A687F900-5547-4D89-8494-B67FCE27BE96}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="C9" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7576,7 +7985,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,15 +8009,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7622,402 +8031,297 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="22" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
+      <c r="D36" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD18D93C-48C5-4729-AFB7-7A8BE992B448}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E64E108-858A-41D1-9E00-C4AD4BDB1FD2}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1140" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="4118" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4698,83 +4698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教材の下の方にある「広大IDのMFA利用設定実習」をクリックして、説明に従って広大IDの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-※ 学外から設定する場合は第６章に説明のある「VPN」を使います。もしVPNの使用が難しい場合は、残りの設定はあとで学内ネットワークに接続してから行いましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="44" eb="49">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>moodle-mfahirodai-below.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5202,6 +5125,83 @@
     </rPh>
     <rPh sb="195" eb="197">
       <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教材の下の方にある「広大IDのMFA利用設定実習」をクリックして、説明に従って広大IDの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-10&lt;/span&gt;
+※ 学外から設定する場合は第７章に説明のある「VPN」を使います。もしVPNの使用が難しい場合は、残りの設定はあとで学内ネットワークに接続してから行いましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="44" eb="49">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
         <v>279</v>
@@ -7278,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7493,13 +7493,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>314</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7985,7 +7985,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8017,7 +8017,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8036,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -8055,42 +8055,42 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>319</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
         <v>321</v>
-      </c>
-      <c r="D11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
         <v>323</v>
-      </c>
-      <c r="D12" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
         <v>325</v>
-      </c>
-      <c r="D13" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D14" t="s">
         <v>282</v>
@@ -8098,21 +8098,21 @@
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
         <v>328</v>
-      </c>
-      <c r="D15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>330</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -8123,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,13 +8169,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>333</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,24 +8196,24 @@
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>335</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>337</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -8221,7 +8221,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8235,7 +8235,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -8246,13 +8246,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>341</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -8260,7 +8260,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E64E108-858A-41D1-9E00-C4AD4BDB1FD2}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1D550C-636C-4DD1-94BE-4A4BFACA2F94}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4118" windowWidth="18225" windowHeight="11872" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -5129,8 +5129,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教材の下の方にある「広大IDのMFA利用設定実習」をクリックして、説明に従って広大IDの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-※ 学外から設定する場合は第７章に説明のある「VPN」を使います。もしVPNの使用が難しい場合は、残りの設定はあとで学内ネットワークに接続してから行いましょう。</t>
+    <t xml:space="preserve">教材の下の方にある「広大IDのMFA利用設定実習」をクリックして、説明に従って広大IDの多要素認証（MFA）設定を進めましょう。詳細は教材の各項目の資料を見てください。&lt;span class="check"&gt;check-10&lt;/span&gt;
+</t>
     <rPh sb="0" eb="2">
       <t>キョウザイ</t>
     </rPh>
@@ -5169,39 +5169,6 @@
     </rPh>
     <rPh sb="77" eb="78">
       <t>ミ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7279,7 +7246,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7488,7 +7455,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1D550C-636C-4DD1-94BE-4A4BFACA2F94}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B981060-CC39-42C8-8407-D0ECBECB5912}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="346">
   <si>
     <t>header1</t>
   </si>
@@ -5170,6 +5170,10 @@
     <rPh sb="77" eb="78">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-checklist.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5794,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5867,6 +5871,9 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7245,7 +7252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{24C083B2-CEBE-46F8-A593-5C30BCD27FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B981060-CC39-42C8-8407-D0ECBECB5912}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119ECBFD-2036-4719-8FF2-06069AB1FD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="396">
   <si>
     <t>header1</t>
   </si>
@@ -89,9 +89,6 @@
     <t>学内ネットワークへの接続</t>
   </si>
   <si>
-    <t>win10-4-01.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">ご自分のPCで学内Wi-Fiに接続する設定をおこないます。
  画面右上の扇形のWi-Fiアイコンをクリックしてください。  </t>
   </si>
@@ -101,9 +98,6 @@
   <si>
     <t xml:space="preserve">Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
   </t>
-  </si>
-  <si>
-    <t>mac-3-2.png</t>
   </si>
   <si>
     <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
@@ -114,13 +108,7 @@
   </t>
   </si>
   <si>
-    <t>mac-3-3.png</t>
-  </si>
-  <si>
     <t>mac-3-4.png</t>
-  </si>
-  <si>
-    <t>win10-4-07.svg</t>
   </si>
   <si>
     <t xml:space="preserve">「同意する」をクリックします。
@@ -2665,19 +2653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この後の手順はインストールマニュアルに従ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
     <rPh sb="7" eb="9">
       <t>ジドウ</t>
@@ -2792,9 +2767,6 @@
   <si>
     <t>macos-auto-update-full-detail.png</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macos-about-catalina.png</t>
   </si>
   <si>
     <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。以降の手順はネットワークにつないで行っても大丈夫です。  </t>
@@ -5174,6 +5146,704 @@
   </si>
   <si>
     <t>moodle-checklist.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-launcher.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365のインストールが終わると、少ししてOffice365のアップデートが自動的に開始されます。タスクバーにこのようなアイコンが出てきますが、特に操作の必要はありません。</t>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-progress.png</t>
+  </si>
+  <si>
+    <t>アップデートの必要がある場合、このようなプログレスバーだけのウィンドウが出てきますが、そのままにしておきましょう。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-latest.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデートが完了すると「最新の状態です」と通知されますが、念のために「更新プログラムを確認」をクリックします。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-available.png</t>
+  </si>
+  <si>
+    <t>このように更新データがあるという情報が出る場合があります。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新」の右側の矢印をクリックするとどのアプリケーションに更新が可能かを見ることができます。</t>
+  </si>
+  <si>
+    <t>ch5-office365-updater-list.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-install-progress.png</t>
+  </si>
+  <si>
+    <t>「更新」を押して更新しましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-updater-latest-list.png</t>
+  </si>
+  <si>
+    <t>全て最新であればこのようになっている筈です。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-startup-signin.png</t>
+  </si>
+  <si>
+    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-about-catalina.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-07.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-01.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-3-2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-3-3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この後の手順はインストールマニュアルに従ってください。以下に手順書で省略されている部分を紹介します。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テジュンショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pkgファイルをクリックした後、悪意があるファイルであってもインストールするかどうかを確認されます(古いmacOSではこの確認はされません)。インストールするには承諾するしかありません。</t>
+    <rPh sb="14" eb="15">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショウダク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-installer-permission.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「システム要件」が表示されるダイヤログは、Apple SiliconのMac (M1, M2 Macなどの、Intel Macではないもの)では機能しないので、白紙のような奇妙なダイヤログになりますが、進めるしかありません。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キミョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ESET LiveGridフィードバックシステム」について確認されますが、推奨設定で進めましょう。</t>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「望ましくない可能性があるアプリケーション」の検出について確認されますが、規定で進めて構いません。</t>
+    <rPh sb="1" eb="2">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESETをどこにインストールするか確認されますが「このコンピュータのすべてのユーザ用」で進めましょう。</t>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-10.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-02.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-05.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-06.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-07.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際にESETを書き込む段階になると、また確認を求められます。今使用中のmacOSのアカウントとパスワードを入力して進めます(電源投入直後に設定したものを使います、広大IDとパスワードではありません)。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-12.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-13.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーとセキュリティ」の設定ウィンドウが開きますので、「一部のソフトウェアは～」の右にある「詳細」をクリックします。</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この後システムを再起動します。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面上部のメニューバーからESETを起動し、ESETのアップデートをしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシ構成の追加を求めるダイヤログが出ますが「許可」で進めます。「許可しない」で閉じると、何か通信をするたびにこのパネルが出てきたり、web閲覧やメールが使えなくなる場合があります。</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「機能拡張をブロックした」というのパネルの「システム設定を開く」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-12_open-sys-config.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールの最中に「機能拡張がブロックされました」と出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
+    <rPh sb="7" eb="9">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールの最中に「コンピュータは保護されていません」と出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
+    <rPh sb="7" eb="9">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-privacy-security-panel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-privacy-security-enable.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細パネルが開き、ESETで追加された3つのソフトウェアの許可状態が表示されます。3つのラジオボタン①②③は最初offになっています。すべてonにして④でパネルを閉じましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に「コンピュータは保護されていません」のパネルの「システム設定を開く」をクリックします。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-protection-not-ready_open-sys-config.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-disk-access-panel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESETのコンポーネントのリストが出てきます。右側のラジオボタンが全てoffになっているので、①②③をonにします。②をonにすると「終了するまで古ディスクアクセスがありません」という新たなダイヤログが表示されますが、閉じずにおいておきます。</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-disk-access_open-sys-config.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-disk-access-not-ready.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクアクセス権がないというダイヤログが出ますが「あとで行う」で閉じます。これは再起動するまで先ほどのアクセス権が反映されないという意味です。</t>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-proxy-add.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-update.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5578,7 +6248,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -5586,15 +6256,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5602,20 +6272,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -5624,12 +6294,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5649,11 +6319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -5661,7 +6331,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5669,7 +6339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5677,7 +6347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5685,106 +6355,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5798,11 +6468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -5810,23 +6480,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5834,59 +6504,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5912,7 +6582,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -5920,23 +6590,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5944,20 +6614,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5966,230 +6636,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6203,27 +6873,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6239,20 +6909,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6261,7 +6931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6272,77 +6942,77 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6353,35 +7023,35 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6392,10 +7062,10 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6406,156 +7076,156 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6569,11 +7239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -6581,7 +7251,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6589,7 +7259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +7267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6605,20 +7275,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6627,110 +7297,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6742,37 +7412,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6780,163 +7450,270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6954,7 +7731,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -6962,23 +7739,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6986,20 +7763,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7008,34 +7785,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7053,7 +7830,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -7061,23 +7838,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7085,20 +7862,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7107,136 +7884,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -7252,11 +8029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -7264,23 +8041,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7288,200 +8065,200 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="D14" t="s">
         <v>296</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>299</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>301</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="D20" t="s">
         <v>303</v>
       </c>
-      <c r="D15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>308</v>
       </c>
-      <c r="D20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -7489,17 +8266,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7513,13 +8290,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -7527,23 +8304,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7551,20 +8328,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7573,368 +8350,433 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7946,7 +8788,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -7954,23 +8796,23 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7978,276 +8820,276 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="28" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -8256,46 +9098,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119ECBFD-2036-4719-8FF2-06069AB1FD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246D1695-7BBF-4654-B97E-3ED468E41FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="402">
   <si>
     <t>header1</t>
   </si>
@@ -5543,14 +5543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eset-install-dialog-12.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eset-install-dialog-13.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「プライバシーとセキュリティ」の設定ウィンドウが開きますので、「一部のソフトウェアは～」の右にある「詳細」をクリックします。</t>
     <rPh sb="16" eb="18">
       <t>セッテイ</t>
@@ -5659,59 +5651,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インストールの最中に「機能拡張がブロックされました」と出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
-    <rPh sb="7" eb="9">
-      <t>サイチュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タイショ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インストールの最中に「コンピュータは保護されていません」と出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
-    <rPh sb="7" eb="9">
-      <t>サイチュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホゴ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>タイショ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-privacy-security-panel.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5772,34 +5711,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ESETのコンポーネントのリストが出てきます。右側のラジオボタンが全てoffになっているので、①②③をonにします。②をonにすると「終了するまで古ディスクアクセスがありません」という新たなダイヤログが表示されますが、閉じずにおいておきます。</t>
-    <rPh sb="17" eb="18">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-disk-access_open-sys-config.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5844,6 +5755,176 @@
   </si>
   <si>
     <t>eset-update.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESETのコンポーネントのリストが出てきます。右側のラジオボタンが全てoffになっているので、①②③をonにします。②をonにすると「終了するまでフルディスクアクセスがありません」という新たなダイヤログが表示されますが、閉じずにおいておきます。</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-03.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用許諾契約を確認した上で「同意する」で進めてください。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールモードは「一般」のまま進めてください。</t>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-04.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-08.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費されるストレージ容量が示されます。十分な空き容量がある場合にインストールに進みましょう。もし借りたPCであるなどして空き容量が少ない場合には、持ち主と相談してファイルを減らしましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヌシ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-11.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールが開始されますが、その最中に「機能拡張がブロックされました」や「コンピュータは保護されていません」などと出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eset-install-dialog-14.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了したら「閉じる」ボタンは押して構いません。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7412,17 +7493,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" customWidth="1"/>
     <col min="4" max="4" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7458,22 +7539,22 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>272</v>
       </c>
@@ -7489,7 +7570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>269</v>
       </c>
@@ -7505,7 +7586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7519,12 +7600,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7535,7 +7616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7547,36 +7628,30 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D18" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7584,10 +7659,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7595,54 +7670,51 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D25" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7650,10 +7722,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7661,10 +7733,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7672,10 +7744,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7683,10 +7755,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7694,26 +7766,59 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D32" t="s">
-        <v>395</v>
+      <c r="D33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246D1695-7BBF-4654-B97E-3ED468E41FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECF44C-D072-415E-9672-083B86FE2EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="399">
   <si>
     <t>header1</t>
   </si>
@@ -5585,52 +5585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロキシ構成の追加を求めるダイヤログが出ますが「許可」で進めます。「許可しない」で閉じると、何か通信をするたびにこのパネルが出てきたり、web閲覧やメールが使えなくなる場合があります。</t>
-    <rPh sb="4" eb="6">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「機能拡張をブロックした」というのパネルの「システム設定を開く」をクリックします。</t>
     <rPh sb="1" eb="3">
       <t>キノウ</t>
@@ -5707,79 +5661,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eset-install-disk-access-panel.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-disk-access_open-sys-config.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eset-install-disk-access-not-ready.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスクアクセス権がないというダイヤログが出ますが「あとで行う」で閉じます。これは再起動するまで先ほどのアクセス権が反映されないという意味です。</t>
-    <rPh sb="8" eb="9">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-proxy-add.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>eset-update.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESETのコンポーネントのリストが出てきます。右側のラジオボタンが全てoffになっているので、①②③をonにします。②をonにすると「終了するまでフルディスクアクセスがありません」という新たなダイヤログが表示されますが、閉じずにおいておきます。</t>
-    <rPh sb="17" eb="18">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5924,6 +5814,98 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESETのコンポーネントのリストが出てきます。右側のラジオボタンが全てoffになっているので、①②③をonにします。②をonにすると「終了するまでフルディスクアクセスがありません」という新たなダイヤログが表示されますが、「後で行う」で閉じます。OSを再起動すると有効になります。</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の作業をしている最中にプロキシ構成の追加を求めるダイヤログが出ますが「許可」で進めます。「許可しない」で閉じると、何か通信をするたびにこのパネルが出てきたり、web閲覧やメールが使えなくなる場合があります。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7493,10 +7475,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7629,18 +7611,18 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7678,10 +7660,10 @@
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7700,10 +7682,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7711,54 +7693,54 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" t="s">
         <v>378</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D29" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7766,59 +7748,37 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECF44C-D072-415E-9672-083B86FE2EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C91DF1-408D-4195-A591-B1EDA1BF5787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5543,25 +5543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「プライバシーとセキュリティ」の設定ウィンドウが開きますので、「一部のソフトウェアは～」の右にある「詳細」をクリックします。</t>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この後システムを再起動します。</t>
     <rPh sb="2" eb="3">
       <t>アト</t>
@@ -5585,22 +5566,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「機能拡張をブロックした」というのパネルの「システム設定を開く」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-dialog-12_open-sys-config.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5764,40 +5729,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インストールが開始されますが、その最中に「機能拡張がブロックされました」や「コンピュータは保護されていません」などと出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイチュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ホゴ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>タイショ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eset-install-dialog-14.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5906,6 +5837,75 @@
     </rPh>
     <rPh sb="97" eb="99">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「機能拡張がブロックされました」というのパネルの「システム設定を開く」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールが開始されますが、その最中に「機能拡張がブロックされました」や「コンピュータは保護されていません」というダイヤログが出ることがあります。インストール完了後に対処しますので、このままにしておきます(OKも押さないでください)。</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーとセキュリティ」の設定ウィンドウが開きますので、「一部のシステムソフトウェアは～」の右にある「詳細」をクリックします。</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7477,8 +7477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7611,18 +7611,18 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7682,10 +7682,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7693,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7704,21 +7704,21 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7726,10 +7726,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7737,10 +7737,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7748,10 +7748,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7759,10 +7759,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7770,15 +7770,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C91DF1-408D-4195-A591-B1EDA1BF5787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727FE7B-89E8-4440-9C44-F2DDD3EE48CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="401">
   <si>
     <t>header1</t>
   </si>
@@ -1272,10 +1272,6 @@
   </si>
   <si>
     <t>25_AboutThisMac.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>26_AboutThisMacStorage.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2887,12 +2883,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2022 Mac chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
-&lt;p class="spl"&gt;※HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。&lt;/p&gt;
- 「ストレージ」タブをクリックしてください。HDD/SSDの空き容量と全容量が表示されます。   </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3765,31 +3755,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
-「macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.7」とあります。このMacのOSのバージョンは10.15.7です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
-&lt;strong&gt;※ 現在最新のmacOSの名前は Monterey です。OSのバージョンやパソコンのスペックは、必ず自分のPCで確認してください。&lt;/strong&gt;
-パソコンの名称も書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-    <rPh sb="193" eb="195">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5324,10 +5289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>macos-about-catalina.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-4-07.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5907,6 +5868,132 @@
     <rPh sb="54" eb="56">
       <t>ショウサイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-about-ventura.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年3月で最新のmacOS Ventura (13.x)ではこのようなパネルが開きます。①チップ、②メモリ、③macOSのバージョン番号をメモしておきましょう。あるいはこのパネルの写真を撮っておきましょう。続いて、④詳細情報に進みます。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報パネルが開きますが、ここで右側を下までスクロールすると「ストレージ」と書かれているエリアがあります。この中の「ストレージ設定」に進みます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「使用済み」の箇所に、搭載している補助記憶装置(SSD/HDD)の全容量と、そのうち使用済みの容量が示されています。この数字を控えておきましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ventura-storage-panel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ventura-ctrl-panel.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6324,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6340,7 +6427,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6348,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6362,7 +6449,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6423,17 +6510,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6447,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6455,13 +6542,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6489,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6503,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6548,7 +6635,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6572,17 +6659,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6590,33 +6677,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6658,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6682,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6690,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6704,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6714,13 +6801,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6728,24 +6815,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,13 +6840,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6767,40 +6854,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6808,13 +6895,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6822,24 +6909,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6847,13 +6934,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6861,35 +6948,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6897,13 +6984,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6911,18 +6998,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6977,7 +7064,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6985,7 +7072,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7058,7 +7145,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7208,7 +7295,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7282,7 +7369,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -7300,21 +7387,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7343,15 +7430,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7365,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -7374,96 +7461,104 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7477,8 +7572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7494,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7502,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,46 +7613,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7573,18 +7668,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7592,10 +7687,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7603,26 +7698,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7630,10 +7725,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7641,10 +7736,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7652,18 +7747,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7671,10 +7766,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7682,10 +7777,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7693,10 +7788,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7704,10 +7799,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7715,10 +7810,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7726,10 +7821,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7737,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7748,10 +7843,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7759,10 +7854,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7770,15 +7865,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7809,7 +7904,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7817,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7833,7 +7928,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7841,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7908,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7916,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7932,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -7940,7 +8035,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7987,29 +8082,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8022,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8036,7 +8131,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8064,7 +8159,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8111,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8119,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8135,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8143,7 +8238,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8154,12 +8249,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8183,18 +8278,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8202,29 +8297,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8232,13 +8327,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8246,18 +8341,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8265,21 +8360,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8287,21 +8382,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8309,13 +8404,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8374,7 +8469,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8398,7 +8493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8406,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8430,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -8444,10 +8539,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
         <v>178</v>
-      </c>
-      <c r="D10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8455,7 +8550,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8463,58 +8558,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
         <v>153</v>
-      </c>
-      <c r="D14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
         <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8522,13 +8617,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8542,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8550,13 +8645,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8570,7 +8665,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8578,13 +8673,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8598,63 +8693,63 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8692,10 +8787,10 @@
     </row>
     <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8787,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -8866,7 +8961,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8890,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -8898,7 +8993,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8917,13 +9012,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8936,64 +9031,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9004,7 +9099,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9014,13 +9109,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9028,21 +9123,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9050,13 +9145,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9069,7 +9164,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9077,24 +9172,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9102,7 +9197,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9116,7 +9211,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9127,13 +9222,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9141,7 +9236,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9154,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9182,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727FE7B-89E8-4440-9C44-F2DDD3EE48CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E6045-DABE-4CCD-AB15-FCD7E711B824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="399">
   <si>
     <t>header1</t>
   </si>
@@ -1477,28 +1477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">OSが適切に更新されるよう設定します。またウィルス対策ソフトがインストールされている場合、自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <rPh sb="3" eb="5">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-hirodai-login.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1779,31 +1757,6 @@
   </si>
   <si>
     <t>download-eset-links.png</t>
-  </si>
-  <si>
-    <t>Office365へ広島大学のアカウントでサインインするため、まず広島大学側のポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;に行きます。このような画面になりますので、portal.office.comへのリンクをクリックします。</t>
-    <rPh sb="10" eb="12">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>office365-portal.png</t>
@@ -3060,32 +3013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Office365にサインインした状態になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
-ここでは左右を縮めて表示していますが、画面の右側のほうに「Officeのインストール」というメニューがありますので、そこからOffice 365アプリを選びます。</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>チヂ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここから先は補足情報であり、この実習で設定する必要はありません。後日必要に応じて行ってください。
  </t>
     <rPh sb="4" eb="5">
@@ -3626,59 +3553,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
-広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、Microsoft Office365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
-ただしこのOffice 365アプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。
-※ 図の中にある「Office 365 Proplus」は現在「Microsoft 365 Apps for Enterprise」に改称されていますが、Office 365 アプリとしての位置づけには変更ありません</t>
-    <rPh sb="31" eb="33">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="363" eb="365">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="374" eb="376">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="451" eb="453">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="489" eb="491">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="517" eb="519">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="523" eb="525">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5118,47 +4992,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Office365のインストールが終わると、少ししてOffice365のアップデートが自動的に開始されます。タスクバーにこのようなアイコンが出てきますが、特に操作の必要はありません。</t>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-office365-updater-progress.png</t>
-  </si>
-  <si>
-    <t>アップデートの必要がある場合、このようなプログレスバーだけのウィンドウが出てきますが、そのままにしておきましょう。</t>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-office365-updater-latest.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5191,25 +5024,6 @@
     <t>ch5-office365-updater-available.png</t>
   </si>
   <si>
-    <t>このように更新データがあるという情報が出る場合があります。</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「更新」の右側の矢印をクリックするとどのアプリケーションに更新が可能かを見ることができます。</t>
-  </si>
-  <si>
     <t>ch5-office365-updater-list.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5217,33 +5031,7 @@
     <t>ch5-office365-updater-install-progress.png</t>
   </si>
   <si>
-    <t>「更新」を押して更新しましょう。</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-office365-updater-latest-list.png</t>
-  </si>
-  <si>
-    <t>全て最新であればこのようになっている筈です。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ch5-office365-startup-signin.png</t>
@@ -5912,34 +5700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報パネルが開きますが、ここで右側を下までスクロールすると「ストレージ」と書かれているエリアがあります。この中の「ストレージ設定」に進みます。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「使用済み」の箇所に、搭載している補助記憶装置(SSD/HDD)の全容量と、そのうち使用済みの容量が示されています。この数字を控えておきましょう。</t>
     <rPh sb="1" eb="3">
       <t>シヨウ</t>
@@ -5994,6 +5754,260 @@
   </si>
   <si>
     <t>ventura-ctrl-panel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報パネルが開きますが、ここで右側を下までスクロールすると(矢印キーではうまくスクロールできない場合があるので、その場合はスワイプしてください)「ストレージ」と書かれているエリアがあります。この中の「ストレージ設定」に進みます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OSが適切に更新されるよう設定します。またウィルス対策ソフトがインストールされている場合、自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;
+ </t>
+    <rPh sb="3" eb="5">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft365へ広島大学のアカウントでサインインするため、まず広島大学側のポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;に行きます。このような画面になりますので、portal.office.comへのリンクをクリックします。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
+広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、Microsoft365アプリを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
+ただしこのアプリはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられており、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。
+※ 図の中にある「Office 365 Proplus」は現在「Microsoft 365 Apps for Enterprise」に改称されていますが、Office 365 アプリとしての位置づけには変更ありません</t>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="339" eb="341">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="348" eb="350">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="407" eb="408">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="409" eb="410">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="472" eb="474">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="500" eb="502">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="506" eb="508">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft365にサインインした状態になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
+ここでは左右を縮めて表示していますが、画面の右側のほうに「アプリをインストール」というメニュー(①)がありますので、そこから「Microsoft365 Apps」(②)を選びます。</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft365のインストールが終わると、少しして勝手に②のようなウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のようなアップデート中のアイコンが出てきますが、特に操作の必要はありません。</t>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このように更新データがあるという情報が出る場合があります。「更新」の右側の矢印をクリックします。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのアプリケーションに更新が可能かを見ることができます。リストの中の「更新」を押して更新しましょう。</t>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新データがダウンロードされ、インストールされます。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て最新であれば「利用可能な更新プログラム」は無く、このようになっている筈です。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6043,7 +6057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6053,6 +6067,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6411,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6435,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6449,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6510,17 +6527,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6534,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6542,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6576,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6590,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6635,7 +6652,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6659,17 +6676,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6677,33 +6694,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6745,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6769,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6777,7 +6794,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6791,7 +6808,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6801,13 +6818,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6815,24 +6832,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6840,13 +6857,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6854,40 +6871,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6895,13 +6912,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6909,24 +6926,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6934,13 +6951,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6948,35 +6965,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6984,13 +7001,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6998,18 +7015,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7064,7 +7081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7072,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7369,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -7389,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7430,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7438,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7452,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -7466,35 +7483,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7589,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7597,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7613,46 +7630,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7668,18 +7685,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7687,10 +7704,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7698,26 +7715,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7725,10 +7742,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7736,10 +7753,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7747,18 +7764,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7766,10 +7783,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7777,10 +7794,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7788,10 +7805,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7799,10 +7816,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7810,10 +7827,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7821,10 +7838,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D28" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7832,10 +7849,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7843,10 +7860,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7854,10 +7871,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7865,15 +7882,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -7904,7 +7921,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7928,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7936,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7986,8 +8003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8003,7 +8020,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8011,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,15 +8044,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8082,29 +8099,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8117,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8131,7 +8148,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8159,7 +8176,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8190,7 +8207,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8206,7 +8223,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8230,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8238,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8249,12 +8266,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8267,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8278,18 +8295,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8297,29 +8314,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8327,13 +8344,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8341,18 +8358,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8360,21 +8377,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8382,21 +8399,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8404,13 +8421,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8450,16 +8467,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
@@ -8468,15 +8485,15 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>250</v>
+      <c r="B1" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8484,7 +8501,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8492,16 +8509,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>232</v>
+      <c r="B4" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
+      <c r="B6" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8511,12 +8528,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8524,8 +8541,8 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>258</v>
+      <c r="B9" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -8538,398 +8555,390 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
+      <c r="B10" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>150</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="D14" t="s">
         <v>152</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>155</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="D18" t="s">
         <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>162</v>
+      <c r="B19" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>164</v>
+      <c r="B21" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>166</v>
+      <c r="B23" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" t="s">
         <v>338</v>
       </c>
-      <c r="D25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
+      <c r="B34" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>64</v>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
+      <c r="B41" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>234</v>
+      <c r="B42" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
+      <c r="B43" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>67</v>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8961,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8985,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -8993,7 +9002,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -9012,13 +9021,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9031,64 +9040,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9099,7 +9108,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9109,13 +9118,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9123,21 +9132,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9145,13 +9154,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9164,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9172,24 +9181,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9197,7 +9206,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9211,7 +9220,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9222,13 +9231,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9236,7 +9245,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9249,7 +9258,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9277,7 +9286,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E6045-DABE-4CCD-AB15-FCD7E711B824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A09E27-9469-462D-A189-B467630CB9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="391">
   <si>
     <t>header1</t>
   </si>
@@ -143,21 +143,6 @@
     <t>mac-4-7.png</t>
   </si>
   <si>
-    <t>mac-4-8.png</t>
-  </si>
-  <si>
-    <t>mac-4-9.png</t>
-  </si>
-  <si>
-    <t>mac-4-10.png</t>
-  </si>
-  <si>
-    <t>mac-4-11.png</t>
-  </si>
-  <si>
-    <t>mac-4-12.png</t>
-  </si>
-  <si>
     <t>mac-4-13.png</t>
   </si>
   <si>
@@ -245,28 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve"> このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではMicrosoft Wordを起動します。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wordの画面が表示されます。 一番下の「始めましょう」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  「サインイン」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  「Officeライセンス認証」として、電子メールアドレスを入れるように促されます。広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  HIROSHIMA UNIVERSITY と書かれたパネルが出ます。先程入力したメールアドレスが出ていることを確認し、パスワードのところに「広大パスワード」を入力してください。入力できたら「サインイン」をクリックします。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  正しくサインインできると,Officeのテーマを選択する画面になります。 今はこのまま「続行」をクリックしてください。  
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5037,46 +5000,6 @@
     <t>ch5-office365-startup-signin.png</t>
   </si>
   <si>
-    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-4-07.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6007,6 +5930,112 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は付録の手順に従ってライセンス認証ずみであることを確認してください。</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-signin-dialog.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Officeは購入済みですか？サインイン」①を選び、次の画面②で広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;さらに次の画面③でパスワードも入力します。学外からのアクセスの場合は多要素認証が要求されます。
+ </t>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ヨウキュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6428,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6444,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6452,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6466,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6527,17 +6556,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6545,13 +6574,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6559,13 +6588,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6593,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6607,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6615,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6649,10 +6678,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6660,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,17 +6705,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6694,33 +6723,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6762,7 +6791,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6770,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6786,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6794,7 +6823,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6808,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6818,13 +6847,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6832,24 +6861,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6857,13 +6886,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6871,40 +6900,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6912,13 +6941,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6926,24 +6955,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6951,13 +6980,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6965,35 +6994,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7001,13 +7030,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7015,18 +7044,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7057,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7081,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7089,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7109,7 +7138,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7117,13 +7146,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7131,24 +7160,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7156,13 +7185,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7170,13 +7199,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7190,18 +7219,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7209,13 +7238,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7229,7 +7258,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7243,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7251,134 +7280,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7386,13 +7415,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7455,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7469,13 +7498,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7483,13 +7512,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7497,21 +7526,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7519,13 +7548,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7533,24 +7562,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7558,24 +7587,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7635,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7614,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7630,54 +7659,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7685,18 +7714,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7704,10 +7733,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7715,26 +7744,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7742,10 +7771,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7753,10 +7782,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7764,18 +7793,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7783,10 +7812,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7794,10 +7823,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7805,10 +7834,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D25" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7816,10 +7845,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7827,10 +7856,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7838,10 +7867,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7849,10 +7878,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7860,10 +7889,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7871,10 +7900,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7882,15 +7911,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -7921,7 +7950,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7929,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7953,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7964,18 +7993,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7983,13 +8012,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -8020,7 +8049,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8028,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8044,7 +8073,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8052,7 +8081,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8071,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -8085,7 +8114,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -8099,34 +8128,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8134,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8148,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8162,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8176,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8223,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8247,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8255,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8266,17 +8295,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -8284,29 +8313,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8314,29 +8343,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8344,13 +8373,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8358,18 +8387,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8377,21 +8406,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8399,21 +8428,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8421,13 +8450,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8467,10 +8496,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8486,7 +8515,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8510,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8518,7 +8547,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8529,12 +8558,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8542,13 +8571,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8556,18 +8585,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8575,58 +8604,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8634,13 +8663,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8654,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8662,13 +8691,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8676,13 +8705,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8690,13 +8719,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8704,66 +8733,66 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8771,7 +8800,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8785,7 +8814,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -8796,24 +8825,24 @@
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8821,27 +8850,27 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8849,27 +8878,27 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,69 +8906,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8970,7 +8943,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8978,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8994,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -9002,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -9013,7 +8986,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9021,18 +8994,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9040,91 +9013,91 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9132,21 +9105,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9154,18 +9127,18 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -9173,7 +9146,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9181,24 +9154,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9206,13 +9179,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -9220,7 +9193,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9231,13 +9204,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9245,12 +9218,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -9258,7 +9231,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9272,13 +9245,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9286,13 +9259,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -9300,13 +9273,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A09E27-9469-462D-A189-B467630CB9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8602D9-BF8F-4DFD-A74D-8B78D545D944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>mac-4-14.png</t>
   </si>
   <si>
-    <t>mac-4-15.png</t>
-  </si>
-  <si>
     <t>mac-4-18.png</t>
   </si>
   <si>
@@ -5842,43 +5839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft365のインストールが終わると、少しして勝手に②のようなウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のようなアップデート中のアイコンが出てきますが、特に操作の必要はありません。</t>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カッテ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このように更新データがあるという情報が出る場合があります。「更新」の右側の矢印をクリックします。</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -6036,6 +5996,47 @@
     </rPh>
     <rPh sb="179" eb="181">
       <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-office365-help-to-update.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;span&gt;Microsoft365のインストールが終わると、少しして勝手に②のようなウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のようなアップデート中のアイコンが出てきますが、特に操作の必要はありません。&lt;/span&gt;</t>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6457,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6473,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6481,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6495,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6556,17 +6557,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6574,13 +6575,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6588,13 +6589,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6622,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6636,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6644,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6678,10 +6679,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6689,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6705,17 +6706,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6723,33 +6724,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6791,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6799,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6815,7 +6816,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6823,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6837,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6847,13 +6848,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6861,24 +6862,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6886,13 +6887,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,40 +6901,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6941,13 +6942,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6955,24 +6956,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6980,13 +6981,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6994,35 +6995,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7030,13 +7031,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7044,18 +7045,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7086,7 +7087,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7110,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7118,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7138,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7146,13 +7147,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7160,24 +7161,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7185,13 +7186,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7199,13 +7200,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7219,18 +7220,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7238,13 +7239,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7258,7 +7259,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7272,7 +7273,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7280,134 +7281,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7415,13 +7416,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7476,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7484,7 +7485,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7498,13 +7499,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7512,13 +7513,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7526,21 +7527,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" t="s">
         <v>375</v>
-      </c>
-      <c r="D10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7548,13 +7549,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7562,24 +7563,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7587,24 +7588,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7643,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7659,54 +7660,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7714,18 +7715,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7733,10 +7734,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" t="s">
         <v>336</v>
-      </c>
-      <c r="D15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7744,26 +7745,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" t="s">
         <v>361</v>
-      </c>
-      <c r="D18" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7771,10 +7772,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7782,10 +7783,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7793,18 +7794,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7812,10 +7813,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7823,10 +7824,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7834,10 +7835,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7845,10 +7846,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7856,10 +7857,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7867,10 +7868,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7878,10 +7879,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7889,10 +7890,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" t="s">
         <v>354</v>
-      </c>
-      <c r="D30" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7900,10 +7901,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7911,15 +7912,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7950,7 +7951,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7958,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7974,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7982,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7993,18 +7994,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8012,13 +8013,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -8049,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8057,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8073,7 +8074,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8081,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8100,7 +8101,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -8114,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -8128,34 +8129,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8163,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8177,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8191,7 +8192,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8205,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8252,7 +8253,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8260,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8276,7 +8277,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8284,7 +8285,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8295,17 +8296,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -8313,29 +8314,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>273</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8343,29 +8344,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>276</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" t="s">
         <v>278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8373,13 +8374,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8387,18 +8388,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>281</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8406,21 +8407,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>283</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
         <v>285</v>
-      </c>
-      <c r="D20" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8428,21 +8429,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>287</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
         <v>289</v>
-      </c>
-      <c r="D22" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8450,13 +8451,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8498,8 +8499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8515,7 +8516,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8547,7 +8548,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8558,12 +8559,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8571,13 +8572,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8585,18 +8586,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8604,58 +8605,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
         <v>141</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
         <v>148</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8663,13 +8664,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8683,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8691,13 +8692,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8705,13 +8706,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8719,13 +8720,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8733,66 +8734,66 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8800,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8814,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -8825,10 +8826,10 @@
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8836,13 +8837,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,7 +8851,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -8864,7 +8865,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -8878,13 +8879,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8892,13 +8893,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8906,13 +8907,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -8943,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8951,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8967,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -8975,7 +8976,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8986,7 +8987,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8994,18 +8995,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9013,91 +9014,91 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>295</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" t="s">
         <v>297</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
         <v>299</v>
-      </c>
-      <c r="D12" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
         <v>301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
         <v>304</v>
-      </c>
-      <c r="D15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>306</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9105,21 +9106,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9127,18 +9128,18 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>309</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -9146,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9154,24 +9155,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>311</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>313</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9179,13 +9180,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -9193,7 +9194,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9204,13 +9205,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>317</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9218,12 +9219,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -9231,7 +9232,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9245,13 +9246,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9259,13 +9260,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -9273,13 +9274,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8602D9-BF8F-4DFD-A74D-8B78D545D944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36504E18-4313-4F15-A41F-9342E3C9A6D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="395">
   <si>
     <t>header1</t>
   </si>
@@ -222,15 +222,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではMicrosoft Wordを起動します。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  「今すぐWordを使ってみる」をクリックしてください。  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -296,15 +288,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="office_install"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">しばらくまつと、ポロリンと音がなり、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ここで Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -442,44 +425,6 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まず、あなたのPCでは、すでにMicrosoft Office （Word, Excel, PowerPoint）が入っていて使えるでしょうか？。
-&lt;strong&gt;もし使えるのなら、それをそのまま使っていただければ結構です。&lt;/strong&gt;この下の項目は飛ばして次の章へ進んでください。</t>
-    <rPh sb="58" eb="59">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ケッコウ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2549,19 +2494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここでは、Microsoft Officeのインストールを行います。
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office_activation"&gt;Officeのライセンス認証&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="137" eb="139">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
     <rPh sb="7" eb="9">
       <t>ジドウ</t>
@@ -2965,11 +2897,6 @@
     <rPh sb="36" eb="38">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5894,61 +5821,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は付録の手順に従ってライセンス認証ずみであることを確認してください。</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-office365-signin-dialog.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6004,41 +5876,278 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;span&gt;Microsoft365のインストールが終わると、少しして勝手に②のようなウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のようなアップデート中のアイコンが出てきますが、特に操作の必要はありません。&lt;/span&gt;</t>
-    <rPh sb="26" eb="27">
+    <t xml:space="preserve">しばらくまつと、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は、&lt;a href="#check_activation"&gt;この章の末尾の手順&lt;/a&gt;に従ってライセンス認証ずみであることを確認してください。</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「今すぐWordを使ってみる」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft365のインストールが終わると、少しして勝手に②のような更新ウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のような更新中のアイコンが出てきますが、後で操作しますので、今は放置しておきます。</t>
+    <rPh sb="20" eb="21">
       <t>オ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="25" eb="26">
       <t>スコ</t>
     </rPh>
+    <rPh sb="29" eb="31">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ホウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、Microsoft Officeのインストールを行います。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office_activation"&gt;Officeのライセンス認証&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office_license_check"&gt;Officeのライセンス状況確認&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office_update"&gt;Officeの更新確認&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="136" eb="138">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a id="office_update"&gt;Officeの更新確認&lt;/a&gt;&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a id="office_license_check"&gt;Officeのライセンス状況確認&lt;/a&gt;&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここではOfficeの更新手順を説明します。
+もしインストールの最中に更新のウィンドウが開いていたならそれを操作します。出ていなかった場合、Officeのソフトのどれかを起動し、メニューバーから「ヘルプ」メニューを展開し、その中から 「更新プログラムのチェック」を選択すると更新のウィンドウが開きます。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サイチュウ</t>
+    </rPh>
     <rPh sb="35" eb="37">
-      <t>カッテ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
       <t>ヒラ</t>
     </rPh>
-    <rPh sb="76" eb="78">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
+    <rPh sb="54" eb="56">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
       <t>デ</t>
     </rPh>
-    <rPh sb="117" eb="118">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ソウサ</t>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず、あなたのPCでは、すでにMicrosoft Office （Word, Excel, PowerPoint）が入っていて使えるでしょうか？。
+&lt;strong&gt;もし使えるのなら、それをそのまま使っていただければ結構です。&lt;/strong&gt;&lt;a href="#office_license_check"&gt;Officeのライセンス状況確認&lt;/a&gt;に進んでください。</t>
+    <rPh sb="58" eb="59">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここではOfficeのライセンス状況確認手順を説明します。Officeのソフトのどれかを起動し、メニューバーのアプリ名(Wordを起動したなら「Word」、Excelを起動したなら「Excel」)をクリックして展開し、「概要」または「バージョン情報」選びます。</t>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガイヨウ</t>
     </rPh>
     <rPh sb="122" eb="124">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとOfficeアプリの概要を示すダイヤログが表示されます。「ライセンス」の行を確認してください。</t>
   </si>
 </sst>
 </file>
@@ -6458,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6474,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6482,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6496,7 +6605,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6557,17 +6666,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6575,13 +6684,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6589,13 +6698,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6623,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6637,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6645,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6679,10 +6788,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,17 +6815,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6724,33 +6833,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6792,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6800,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6816,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6824,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6838,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6848,13 +6957,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6862,24 +6971,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,13 +6996,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6901,40 +7010,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6942,13 +7051,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6956,24 +7065,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6981,13 +7090,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6995,35 +7104,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7031,13 +7140,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7045,18 +7154,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7087,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,7 +7220,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7119,7 +7228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7139,7 +7248,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7147,13 +7256,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7161,24 +7270,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7186,13 +7295,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7200,13 +7309,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7220,18 +7329,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7239,13 +7348,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7259,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7273,7 +7382,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7281,134 +7390,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7416,13 +7525,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7477,7 +7586,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7485,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7499,13 +7608,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7513,13 +7622,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7527,21 +7636,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7549,13 +7658,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7563,24 +7672,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7588,24 +7697,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7636,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7644,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7660,54 +7769,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7715,18 +7824,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7734,10 +7843,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7745,26 +7854,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7772,10 +7881,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7783,10 +7892,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7794,18 +7903,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7813,10 +7922,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7824,10 +7933,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7835,10 +7944,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7846,10 +7955,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7857,10 +7966,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7868,10 +7977,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7879,10 +7988,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7890,10 +7999,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7901,10 +8010,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7912,15 +8021,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7975,7 +8084,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7983,7 +8092,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7994,18 +8103,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8013,13 +8122,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8050,7 +8159,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8058,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,7 +8183,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8082,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8129,34 +8238,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8164,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8178,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8192,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8206,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8253,7 +8362,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8261,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8277,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8285,7 +8394,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8296,12 +8405,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,7 +8423,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8325,18 +8434,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8344,29 +8453,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8374,13 +8483,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8388,18 +8497,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8407,21 +8516,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8429,21 +8538,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8451,13 +8560,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8497,10 +8606,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8516,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8524,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8540,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8548,7 +8657,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8559,12 +8668,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8572,13 +8681,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8586,10 +8695,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8597,7 +8706,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8605,58 +8714,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8664,13 +8773,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8684,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8692,13 +8801,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8706,13 +8815,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8720,13 +8829,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8734,185 +8843,205 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8944,7 +9073,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8968,7 +9097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -8976,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8995,13 +9124,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9014,64 +9143,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9082,7 +9211,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9092,13 +9221,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9106,21 +9235,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9128,13 +9257,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9147,7 +9276,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9155,24 +9284,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9180,7 +9309,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9194,7 +9323,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9205,13 +9334,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9219,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9232,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9260,7 +9389,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36504E18-4313-4F15-A41F-9342E3C9A6D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24943D-3DA3-4581-AAA7-593F48160E90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="393">
   <si>
     <t>header1</t>
   </si>
@@ -226,34 +226,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  「Microsoftのアプリを自動で常に最新の状態にする」にチェックが入っていることを確認しましょう。 </t>
-    <rPh sb="17" eb="19">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivirusの手動更新とフルスキャン&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-4-16a.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4883,31 +4860,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アップデートが完了すると「最新の状態です」と通知されますが、念のために「更新プログラムを確認」をクリックします。</t>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-office365-updater-available.png</t>
   </si>
   <si>
@@ -6148,6 +6100,34 @@
   </si>
   <si>
     <t>するとOfficeアプリの概要を示すダイヤログが表示されます。「ライセンス」の行を確認してください。</t>
+  </si>
+  <si>
+    <t>「Microsoftのアプリを自動で常に最新の状態にする」(①)にチェックを入れた上で、「更新プログラムを確認」(②)をクリックします。</t>
+    <rPh sb="15" eb="17">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6567,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6583,7 +6563,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6591,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6605,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6666,17 +6646,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6684,13 +6664,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6698,13 +6678,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6732,7 +6712,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6746,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6754,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6788,10 +6768,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6815,17 +6795,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6833,33 +6813,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6901,7 +6881,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6909,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6925,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6933,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6947,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6957,13 +6937,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6971,24 +6951,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,13 +6976,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7010,40 +6990,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7051,13 +7031,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7065,24 +7045,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7090,13 +7070,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7104,35 +7084,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7140,13 +7120,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7154,18 +7134,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7196,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7228,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7248,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7256,13 +7236,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7270,24 +7250,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7295,13 +7275,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7309,13 +7289,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7329,18 +7309,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7348,13 +7328,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7368,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7382,7 +7362,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7390,134 +7370,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7525,13 +7505,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7586,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7594,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7608,13 +7588,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7622,13 +7602,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7636,21 +7616,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7658,13 +7638,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7672,24 +7652,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7697,24 +7677,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7745,7 +7725,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7753,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7769,54 +7749,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7824,18 +7804,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7843,10 +7823,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7854,26 +7834,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7881,10 +7861,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7892,10 +7872,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7903,18 +7883,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7922,10 +7902,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7933,10 +7913,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7944,10 +7924,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7955,10 +7935,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7966,10 +7946,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7977,10 +7957,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7988,10 +7968,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7999,10 +7979,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8010,10 +7990,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8021,15 +8001,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8040,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8068,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8084,7 +8064,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8092,7 +8072,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8103,18 +8083,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8122,13 +8102,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8159,7 +8139,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8167,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8183,7 +8163,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8191,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8238,34 +8218,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8273,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8287,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8301,7 +8281,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8315,7 +8295,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8362,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8370,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8386,7 +8366,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8394,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8405,12 +8385,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8423,7 +8403,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8434,18 +8414,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8453,29 +8433,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8483,13 +8463,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8497,18 +8477,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8516,21 +8496,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8538,21 +8518,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8560,13 +8540,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8606,10 +8586,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8625,7 +8605,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8633,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8649,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8657,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8668,12 +8648,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8681,13 +8661,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8695,10 +8675,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8706,7 +8686,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8714,58 +8694,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8773,13 +8753,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8793,7 +8773,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8801,13 +8781,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8815,13 +8795,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8829,13 +8809,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8843,26 +8823,26 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8870,7 +8850,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8895,10 +8875,10 @@
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8906,13 +8886,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8920,7 +8900,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -8934,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8945,22 +8925,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8968,53 +8948,53 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -9025,23 +9005,9 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9073,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9097,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -9105,7 +9071,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -9124,13 +9090,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9143,64 +9109,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9211,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9221,13 +9187,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9235,21 +9201,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9257,13 +9223,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9276,7 +9242,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9284,24 +9250,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9309,7 +9275,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9323,7 +9289,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9334,13 +9300,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9348,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9361,7 +9327,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9389,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24943D-3DA3-4581-AAA7-593F48160E90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179045-D32B-4DBC-AE37-347E52492229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivirusの手動更新とフルスキャン&lt;/h2&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6126,6 +6122,16 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。 ウィンドウを閉じるのでも構いません。</t>
+    <rPh sb="56" eb="57">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6547,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6563,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6571,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6585,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6646,17 +6652,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6664,13 +6670,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6678,13 +6684,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6712,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6726,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6734,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6768,10 +6774,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6795,17 +6801,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6813,33 +6819,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6881,7 +6887,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6889,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6905,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6913,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6927,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6937,13 +6943,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6951,24 +6957,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6976,13 +6982,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6990,40 +6996,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7031,13 +7037,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7045,24 +7051,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7070,13 +7076,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7084,35 +7090,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7120,13 +7126,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7134,18 +7140,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7176,7 +7182,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7200,7 +7206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7208,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7228,7 +7234,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7236,13 +7242,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7250,24 +7256,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7275,13 +7281,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7289,13 +7295,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7309,18 +7315,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7328,13 +7334,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7348,7 +7354,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7362,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7370,134 +7376,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7505,13 +7511,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7566,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7574,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7588,13 +7594,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7602,13 +7608,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7616,21 +7622,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" t="s">
         <v>364</v>
-      </c>
-      <c r="D10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7638,13 +7644,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7652,24 +7658,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7677,24 +7683,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7725,7 +7731,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7733,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7749,54 +7755,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7804,18 +7810,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7823,10 +7829,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" t="s">
         <v>325</v>
-      </c>
-      <c r="D15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7834,26 +7840,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
         <v>350</v>
-      </c>
-      <c r="D18" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7861,10 +7867,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7872,10 +7878,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7883,18 +7889,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7902,10 +7908,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7913,10 +7919,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7924,10 +7930,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7935,10 +7941,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7946,10 +7952,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7957,10 +7963,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7968,10 +7974,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7979,10 +7985,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
         <v>343</v>
-      </c>
-      <c r="D30" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7990,10 +7996,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8001,15 +8007,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -8040,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8048,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8072,7 +8078,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8083,18 +8089,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8102,13 +8108,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8139,7 +8145,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8147,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,7 +8169,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8171,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8218,34 +8224,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8253,7 +8259,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8267,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8281,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8295,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8342,7 +8348,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8366,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8374,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8385,12 +8391,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8403,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8414,18 +8420,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8433,29 +8439,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>266</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s">
         <v>268</v>
-      </c>
-      <c r="D14" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8463,13 +8469,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8477,18 +8483,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>271</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8496,21 +8502,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>273</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" t="s">
         <v>275</v>
-      </c>
-      <c r="D20" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8518,21 +8524,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>277</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
         <v>279</v>
-      </c>
-      <c r="D22" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8540,13 +8546,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8589,7 +8595,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8605,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8629,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8637,7 +8643,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8648,12 +8654,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8661,13 +8667,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8675,10 +8681,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8686,7 +8692,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8694,58 +8700,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
         <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
-      </c>
-      <c r="D18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8753,13 +8759,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8773,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8781,13 +8787,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8795,13 +8801,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8809,13 +8815,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8823,26 +8829,26 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8850,7 +8856,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8875,10 +8881,10 @@
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8886,13 +8892,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8900,7 +8906,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -8914,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8925,22 +8931,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8948,53 +8954,53 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -9002,7 +9008,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -9039,7 +9045,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9063,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -9071,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -9090,13 +9096,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9109,64 +9115,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>285</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" t="s">
         <v>287</v>
-      </c>
-      <c r="D11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="s">
         <v>289</v>
-      </c>
-      <c r="D12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="s">
         <v>291</v>
-      </c>
-      <c r="D13" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
         <v>294</v>
-      </c>
-      <c r="D15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>296</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9177,7 +9183,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9187,13 +9193,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9201,21 +9207,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9223,13 +9229,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>299</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9242,7 +9248,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9250,24 +9256,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>301</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>303</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9275,7 +9281,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9289,7 +9295,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9300,13 +9306,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>307</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9314,7 +9320,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9327,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9355,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179045-D32B-4DBC-AE37-347E52492229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D18D6-3DD5-4666-9F88-C5A19A60D788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5891,10 +5891,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft365のインストールが終わると、少しして勝手に②のような更新ウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のような更新中のアイコンが出てきますが、後で操作しますので、今は放置しておきます。</t>
     <rPh sb="20" eb="21">
       <t>オ</t>
@@ -6132,6 +6128,31 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、「Launchpad」を起動してください。 アイコンはmacOSのバージョンごとに頻繁に変わるので、マウスで指したときのツールチップに出てくる名前で探すのがよいでしょう。</t>
+    <rPh sb="86" eb="88">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8594,8 +8615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8643,7 +8664,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8659,7 +8680,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8840,7 +8861,7 @@
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
         <v>312</v>
@@ -8851,12 +8872,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8920,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8931,22 +8952,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8954,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -8965,7 +8986,7 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
         <v>313</v>
@@ -9008,7 +9029,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D18D6-3DD5-4666-9F88-C5A19A60D788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179045-D32B-4DBC-AE37-347E52492229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5891,6 +5891,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Microsoft365のインストールが終わると、少しして勝手に②のような更新ウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のような更新中のアイコンが出てきますが、後で操作しますので、今は放置しておきます。</t>
     <rPh sb="20" eb="21">
       <t>オ</t>
@@ -6128,31 +6132,6 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、「Launchpad」を起動してください。 アイコンはmacOSのバージョンごとに頻繁に変わるので、マウスで指したときのツールチップに出てくる名前で探すのがよいでしょう。</t>
-    <rPh sb="86" eb="88">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヒンパン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8615,8 +8594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8664,7 +8643,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8680,7 +8659,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8861,7 +8840,7 @@
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
         <v>312</v>
@@ -8872,12 +8851,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8941,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -8952,22 +8931,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8975,7 +8954,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -8986,7 +8965,7 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
         <v>313</v>
@@ -9029,7 +9008,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179045-D32B-4DBC-AE37-347E52492229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69724849-E347-4B6F-B8CE-CFC6BE6CE0F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="399">
   <si>
     <t>header1</t>
   </si>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">  いろんな設定をするためのアイコンが並んでいます。 「ソフトウェア・アップデート」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではMicrosoft Wordを起動します。  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5829,72 +5825,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>起動した時に、左下に「ライセンス認証」のアイコンが出ている場合は、以下の手順に従って認証してください。もし無かった場合は、&lt;a href="#check_activation"&gt;この章の末尾の手順&lt;/a&gt;に従ってライセンス認証ずみであることを確認してください。</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「今すぐWordを使ってみる」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft365のインストールが終わると、少しして勝手に②のような更新ウィンドウが開いてMicrosoft365のアップデートが自動的に開始されます。この時タスクバーに①のような更新中のアイコンが出てきますが、後で操作しますので、今は放置しておきます。</t>
     <rPh sb="20" eb="21">
       <t>オ</t>
@@ -5938,11 +5868,6 @@
     <rPh sb="121" eb="123">
       <t>ホウチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6055,6 +5980,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>するとOfficeアプリの概要を示すダイヤログが表示されます。「ライセンス」の行を確認してください。</t>
+  </si>
+  <si>
+    <t>「Microsoftのアプリを自動で常に最新の状態にする」(①)にチェックを入れた上で、「更新プログラムを確認」(②)をクリックします。</t>
+    <rPh sb="15" eb="17">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。 ウィンドウを閉じるのでも構いません。</t>
+    <rPh sb="56" eb="57">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、「Launchpad」を起動してください。 アイコンはmacOSのバージョンごとに頻繁に変わるので、マウスで指したときのツールチップに出てくる名前で探すのがよいでしょう。</t>
+    <rPh sb="86" eb="88">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「今すぐExcelを使ってみる」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelの新規作成の画面が開きました。 これで、PowerPointやWordなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ここではOfficeのライセンス状況確認手順を説明します。Officeのソフトのどれかを起動し、メニューバーのアプリ名(Wordを起動したなら「Word」、Excelを起動したなら「Excel」)をクリックして展開し、「概要」または「バージョン情報」選びます。</t>
     <rPh sb="16" eb="18">
       <t>ジョウキョウ</t>
@@ -6068,70 +6068,172 @@
     <rPh sb="23" eb="25">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="48" eb="50">
       <t>キドウ</t>
     </rPh>
-    <rPh sb="58" eb="59">
+    <rPh sb="62" eb="63">
       <t>メイ</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="69" eb="71">
       <t>キドウ</t>
     </rPh>
+    <rPh sb="88" eb="90">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、このテキストの例ではMicrosoft Excelを起動します。 見当たらない場合はLaunchpadの上部にある検索フォームに「Excel」と入力して検索しましょう。</t>
+    <rPh sb="86" eb="87">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ミア</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ウエブ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Microsoftはお客様のプライバシーの保護に～」などと出てくることがありますが、「次へ」を押すしか選択肢がありません。</t>
+    <rPh sb="12" eb="14">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-7a.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-7b.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-7c.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一緒に進歩する」というダイヤログが出てくることがありますが、これはユーザのデータをMicrosoftに送るかどうかという選択です。少しでもプライバシーを守るため拒否を選択し(①)、「承諾」(②)で進めましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンポ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キョヒ</t>
+    </rPh>
     <rPh sb="84" eb="86">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>するとOfficeアプリの概要を示すダイヤログが表示されます。「ライセンス」の行を確認してください。</t>
-  </si>
-  <si>
-    <t>「Microsoftのアプリを自動で常に最新の状態にする」(①)にチェックを入れた上で、「更新プログラムを確認」(②)をクリックします。</t>
-    <rPh sb="15" eb="17">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ウエ</t>
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エクスペリエンスの強化」というダイヤログが出てくることがありますが、あとでプライバシーの設定をしますので、「完了」をで進めます。</t>
+    <rPh sb="10" eb="12">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>デ</t>
     </rPh>
     <rPh sb="45" eb="47">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。 ウィンドウを閉じるのでも構いません。</t>
-    <rPh sb="56" eb="57">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カマ</t>
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelで新規ファイル作成のウィンドウになりますが、広大の包括ライセンスでインストールした場合、左下に「ライセンス認証」のマークが出ています。</t>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6553,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6569,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6577,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6591,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6652,17 +6754,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6670,13 +6772,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6684,13 +6786,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6718,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6732,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6740,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6774,10 +6876,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6801,17 +6903,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6819,33 +6921,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,7 +6989,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6895,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6911,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6919,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6933,7 +7035,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,13 +7045,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6957,24 +7059,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6982,13 +7084,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,40 +7098,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7037,13 +7139,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7051,24 +7153,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7076,13 +7178,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7090,35 +7192,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7126,13 +7228,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7140,18 +7242,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7182,7 +7284,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7214,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7234,7 +7336,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7242,13 +7344,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7256,24 +7358,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7281,13 +7383,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7295,13 +7397,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7315,18 +7417,18 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7334,13 +7436,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7354,7 +7456,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7368,7 +7470,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7376,134 +7478,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7511,13 +7613,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -7572,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -7580,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7594,13 +7696,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7608,13 +7710,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7622,21 +7724,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" t="s">
         <v>363</v>
-      </c>
-      <c r="D10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7644,13 +7746,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7658,24 +7760,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7683,24 +7785,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7731,7 +7833,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7739,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7755,54 +7857,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7810,18 +7912,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7829,10 +7931,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" t="s">
         <v>324</v>
-      </c>
-      <c r="D15" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7840,26 +7942,26 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" t="s">
         <v>349</v>
-      </c>
-      <c r="D18" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7867,10 +7969,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7878,10 +7980,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7889,18 +7991,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7908,10 +8010,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7919,10 +8021,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7930,10 +8032,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7941,10 +8043,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7952,10 +8054,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7963,10 +8065,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7974,10 +8076,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7985,10 +8087,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
         <v>342</v>
-      </c>
-      <c r="D30" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -7996,10 +8098,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8007,15 +8109,15 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8046,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8054,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8070,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8078,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8089,18 +8191,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8108,13 +8210,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8145,7 +8247,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8153,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8169,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8177,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8224,34 +8326,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8259,7 +8361,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -8273,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -8287,7 +8389,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -8301,7 +8403,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -8348,7 +8450,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8356,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8372,7 +8474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8380,7 +8482,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8391,12 +8493,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8409,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8420,18 +8522,18 @@
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8439,29 +8541,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>265</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
         <v>267</v>
-      </c>
-      <c r="D14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -8469,13 +8571,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -8483,18 +8585,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8502,21 +8604,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>272</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" t="s">
         <v>274</v>
-      </c>
-      <c r="D20" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8524,21 +8626,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>276</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -8546,13 +8648,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8592,10 +8694,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8603,7 +8705,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -8611,7 +8713,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8619,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8635,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -8643,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8654,12 +8756,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8667,13 +8769,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8681,10 +8783,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8692,7 +8794,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8700,58 +8802,58 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
         <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
         <v>135</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
         <v>139</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8759,13 +8861,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -8779,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8787,13 +8889,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -8801,13 +8903,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8815,13 +8917,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -8829,34 +8931,34 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8865,12 +8967,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -8879,141 +8981,165 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D38" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>372</v>
+        <v>382</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D41" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="D43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9045,7 +9171,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9069,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -9077,7 +9203,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -9096,13 +9222,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9115,64 +9241,64 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
         <v>286</v>
-      </c>
-      <c r="D11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
         <v>288</v>
-      </c>
-      <c r="D12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
         <v>290</v>
-      </c>
-      <c r="D13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" t="s">
         <v>293</v>
-      </c>
-      <c r="D15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>295</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -9183,7 +9309,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9193,13 +9319,13 @@
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9207,21 +9333,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -9229,13 +9355,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>298</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9248,7 +9374,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -9256,24 +9382,24 @@
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>300</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>302</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -9281,7 +9407,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -9295,7 +9421,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -9306,13 +9432,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>306</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -9320,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -9361,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>

--- a/macs+lan.xlsx
+++ b/macs+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69724849-E347-4B6F-B8CE-CFC6BE6CE0F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C41E9-F672-4076-9DF4-68A6F5B67091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6036" yWindow="-15768" windowWidth="9324" windowHeight="11592" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5769,53 +5769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「Officeは購入済みですか？サインイン」①を選び、次の画面②で広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;さらに次の画面③でパスワードも入力します。学外からのアクセスの場合は多要素認証が要求されます。
- </t>
-    <rPh sb="8" eb="10">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ガクガイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-office365-help-to-update.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6050,11 +6003,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Excelの新規作成の画面が開きました。 これで、PowerPointやWordなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここではOfficeのライセンス状況確認手順を説明します。Officeのソフトのどれかを起動し、メニューバーのアプリ名(Wordを起動したなら「Word」、Excelを起動したなら「Excel」)をクリックして展開し、「概要」または「バージョン情報」選びます。</t>
     <rPh sb="16" eb="18">
       <t>ジョウキョウ</t>
@@ -6234,6 +6182,97 @@
     </rPh>
     <rPh sb="66" eb="67">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Microsoft365をライセンス認証して作成と編集を行う」というダイヤログが開きます。「Officeは購入済みですか？サインイン」(①)を選び、次の画面(②)で広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;さらに次の画面(③)でパスワードも入力します。学外からのアクセスの場合は多要素認証が要求されます。
+ </t>
+    <rPh sb="19" eb="21">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelの新規作成の画面に戻ります。左上(①)にメディアセンタが登録している貴方の名前、左下(②)にライセンス認証のアイコンがないことを確認してください。これで、PowerPointやWordなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-12&lt;/span&gt;
+  </t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8697,7 +8736,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8745,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8761,7 +8800,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -8931,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -8942,7 +8981,7 @@
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
         <v>311</v>
@@ -8958,7 +8997,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -8972,7 +9011,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -8983,31 +9022,31 @@
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
         <v>317</v>
@@ -9018,7 +9057,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <